--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809FDB8-6479-4946-B8ED-6559B20876CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80500CD7-557D-4F26-A0C1-2A6957D505D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="975" windowWidth="21030" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1170" windowWidth="21030" windowHeight="13830" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -1373,7 +1373,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1382,7 +1382,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1691,8 +1691,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1784,7 +1784,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1914,7 +1914,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1937,7 +1937,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2003,7 +2003,7 @@
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2971,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CD337-DE9F-468D-9020-AE25C80F6EFD}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80500CD7-557D-4F26-A0C1-2A6957D505D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC814C8D-B994-49F5-A64B-4D5015E38AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1170" windowWidth="21030" windowHeight="13830" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="1710" windowWidth="15690" windowHeight="13830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
     <sheet name="POS" sheetId="3" r:id="rId2"/>
-    <sheet name="Tag" sheetId="2" r:id="rId3"/>
-    <sheet name="head" sheetId="5" r:id="rId4"/>
-    <sheet name="dep" sheetId="4" r:id="rId5"/>
+    <sheet name="dep" sheetId="4" r:id="rId3"/>
+    <sheet name="Tag" sheetId="2" r:id="rId4"/>
+    <sheet name="head" sheetId="5" r:id="rId5"/>
+    <sheet name="morph" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="347">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -850,9 +851,6 @@
     <t>advmod</t>
   </si>
   <si>
-    <t>He left because he was tired.</t>
-  </si>
-  <si>
     <t>adverbial clause modifier</t>
   </si>
   <si>
@@ -860,9 +858,6 @@
   </si>
   <si>
     <t>She said that he left.</t>
-  </si>
-  <si>
-    <t>clausal complement with subject</t>
   </si>
   <si>
     <t>ccomp</t>
@@ -1008,6 +1003,422 @@
   </si>
   <si>
     <t>voice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주절의 중심동사에게 부여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>clausal complement with subject
+종속절의 중심동사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tense</t>
+  </si>
+  <si>
+    <t>시제</t>
+  </si>
+  <si>
+    <r>
+      <t>Past</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Pres</t>
+    </r>
+  </si>
+  <si>
+    <t>VerbForm</t>
+  </si>
+  <si>
+    <t>동사형태</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>태</t>
+  </si>
+  <si>
+    <r>
+      <t>Act</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Pass</t>
+    </r>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>격</t>
+  </si>
+  <si>
+    <r>
+      <t>Nom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Acc</t>
+    </r>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>수 (단수/복수)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Plur</t>
+    </r>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>성</t>
+  </si>
+  <si>
+    <r>
+      <t>Masc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Fem</t>
+    </r>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>인칭</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>PronType</t>
+  </si>
+  <si>
+    <t>대명사 종류</t>
+  </si>
+  <si>
+    <r>
+      <t>Prs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Int</t>
+    </r>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>비교급, 최상급</t>
+  </si>
+  <si>
+    <r>
+      <t>Pos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Cmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Sup</t>
+    </r>
+  </si>
+  <si>
+    <t>PunctType</t>
+  </si>
+  <si>
+    <t>구두점 종류</t>
+  </si>
+  <si>
+    <r>
+      <t>Comm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Peri</t>
+    </r>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 종속 토큰들(Subtree)
+She wants to eat apples.
+☞ wants(to, eat), eat(apples)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He left because he </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tired.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mood</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화법/양태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ind(직설법), Imp(명령법), Sub(가정법)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finite verb : 인칭.시제 있는 동사
+Infinitive : to부정사 원형
+Participle : 분사.현재/과거
+Gerend :  동명사
+None : 없음(전치사, 명사 등)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1083,6 +1494,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1146,7 +1580,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,6 +1622,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1689,10 +2138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1855,7 +2304,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -1876,7 +2325,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -1897,7 +2346,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -1950,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -1959,89 +2408,85 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2049,54 +2494,54 @@
         <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
@@ -2106,80 +2551,99 @@
         <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>64</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2491,15 +2955,333 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CD337-DE9F-468D-9020-AE25C80F6EFD}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188AACB-6C0D-4089-B65B-8518254B8352}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2879,7 +3661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13268DF6-5079-4F97-A6E4-944233636DE0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2897,7 +3679,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -2911,54 +3693,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2967,310 +3749,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CD337-DE9F-468D-9020-AE25C80F6EFD}">
-  <dimension ref="A1:C26"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAA0F52-A97C-4583-B104-CC37134222CF}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>286</v>
+      <c r="A1" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>283</v>
+      <c r="A3" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>280</v>
+      <c r="A4" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>277</v>
+      <c r="A5" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>274</v>
+      <c r="A6" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>271</v>
+      <c r="A7" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>268</v>
+      <c r="A8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>265</v>
+      <c r="A9" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>262</v>
+      <c r="A10" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>215</v>
+      <c r="A11" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC814C8D-B994-49F5-A64B-4D5015E38AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CC8D6-B7F9-46FF-973C-435946D48F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="1710" windowWidth="15690" windowHeight="13830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24210" yWindow="405" windowWidth="24240" windowHeight="14235" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Tag" sheetId="2" r:id="rId4"/>
     <sheet name="head" sheetId="5" r:id="rId5"/>
     <sheet name="morph" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="396">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -746,30 +747,18 @@
     <t>aux</t>
   </si>
   <si>
-    <t>The book that she read</t>
-  </si>
-  <si>
     <t>relative clause</t>
   </si>
   <si>
     <t>relcl</t>
   </si>
   <si>
-    <t>The man who came</t>
-  </si>
-  <si>
     <t>adjectival clause</t>
   </si>
   <si>
     <t>acl</t>
   </si>
   <si>
-    <t>My friend, a doctor, arrived.</t>
-  </si>
-  <si>
-    <t>appositional modifier</t>
-  </si>
-  <si>
     <t>appos</t>
   </si>
   <si>
@@ -815,15 +804,6 @@
     <t>conj</t>
   </si>
   <si>
-    <t>coffee mug</t>
-  </si>
-  <si>
-    <t>compound noun modifier</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
     <t>The apple.</t>
   </si>
   <si>
@@ -833,18 +813,12 @@
     <t>det</t>
   </si>
   <si>
-    <t>The red apple.</t>
-  </si>
-  <si>
     <t>adjectival modifier</t>
   </si>
   <si>
     <t>amod</t>
   </si>
   <si>
-    <t>She ran quickly.</t>
-  </si>
-  <si>
     <t>adverbial modifier (부사 수식어)</t>
   </si>
   <si>
@@ -857,15 +831,9 @@
     <t>advcl</t>
   </si>
   <si>
-    <t>She said that he left.</t>
-  </si>
-  <si>
     <t>ccomp</t>
   </si>
   <si>
-    <t>She wants to go.</t>
-  </si>
-  <si>
     <t>open clausal complement (주어 공유하는 보어절)</t>
   </si>
   <si>
@@ -881,9 +849,6 @@
     <t>obl</t>
   </si>
   <si>
-    <t>She gave him a book.</t>
-  </si>
-  <si>
     <t>indirect object</t>
   </si>
   <si>
@@ -924,9 +889,6 @@
   </si>
   <si>
     <t>nsubjpass</t>
-  </si>
-  <si>
-    <t>She loves apples.</t>
   </si>
   <si>
     <t>nominal subject (명사 주어)</t>
@@ -1421,12 +1383,757 @@
 None : 없음(전치사, 명사 등)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She ran </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quickly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She wants to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dobj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She gave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>him</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a book.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dative</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She gave him a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+She loves </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct object (직접 목적어)
+object(일반 목적어)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>oprd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They elected him </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>president</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acomp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVOC object predicate (목적어 보어)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVC adjectival complement 형용사 보어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVC attribute 속성 보어, 명사보어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>npadvmod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun phrase as adverbial modifier
+명사지만 부사적 수식어처럼 쓰이는 경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He left </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yesterday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+He was named </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. / 이건 좀 이상함.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pobj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepositional object</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She sat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>named</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> John class president.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The man who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>came</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We named the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>puppy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She sings and dances.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The company named </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lisa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CEO.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They named their son </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>James</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appositional modifier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She made </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>him</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leader. / 좀 이상항</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She said that he </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+She made him </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. / 이상함</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound noun modifier 복합명사 수식어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head.idx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드의 인덱스 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We named the cat Coco.
+   ○         □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign_svoc_complement_as_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">She made him leader.
+    ○        </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    if dep in ["oprd", "xcomp", "ccomp"]:
+        if pos in ["NOUN", "PROPN", "PRON"]:
+            return "noun object complement"
+        elif pos == "ADJ":
+            return "adjective object complement"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">She made him leader.
+    ○ </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVOC에서 him을 nsubj(주어)로 잘못 태깅하는 경우가 있다.
+이 문장에서는 또 leader도 ccomp로 잘못 태깅함.
+그래서 위 1.에 의해 leader를 목적보어 값으로 바꾸고,
+repair_object_from_complement에 의해 him을 목적어 값으로 바꿈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_object_from_complement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적보어인 명사를 ccomp로 태그하는 경우가 있음. 
+이경우 pos가 명사류인 경우 명사목적보어 값으로 바꿈.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVOC에서 목적보어를 잘못 태깅하는 경우가 있다,
+assign_svoc_complement_as_name 함수를 통해 목적어가 있는 단서를 이용해
+목적보어 Coco (npadvmod)에 대해 명사목적보어값을 줌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇창에서 잘못 분석할 수 있으니,
+물어보는 루틴이 필요함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint 뒤에 복합명사가 올경우 오판이 매우 많음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇창에서 사용자 선택 루틴이 필요함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>live류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선재 방어 if문 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>die류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>die 다음 목적어 있다고 태깅하는 경우도 있음.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>live 다음 보어가 있다고 태깅하는 경우가 잦음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>They named their son James.
+     ○           □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>James의 head가 name이 아닌 son이라
+보정함수 적용이 안됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The company named Lisa CEO.
+                        [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I consider her a genius.
+  ○               [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 목적보어가 있는 걸 단서로 해서 앞쪽 목적어 빠지는걸 보정
+Lisa는 compound</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 목적보어가 있는 걸 단서로 해서 앞쪽 목적어 빠지는걸 보정
+her는 nsubj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1517,6 +2224,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1580,7 +2303,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,6 +2360,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2138,10 +2867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2304,7 +3033,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -2325,7 +3054,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -2346,7 +3075,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -2399,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -2408,85 +3137,83 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="E14" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2494,18 +3221,16 @@
         <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
@@ -2513,19 +3238,17 @@
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>52</v>
@@ -2534,33 +3257,35 @@
         <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
@@ -2570,80 +3295,99 @@
         <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>64</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2660,7 +3404,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2814,10 +3558,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>52</v>
@@ -2828,13 +3572,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>52</v>
@@ -2842,10 +3586,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>68</v>
@@ -2856,13 +3600,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>52</v>
@@ -2961,10 +3705,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CD337-DE9F-468D-9020-AE25C80F6EFD}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2988,289 +3732,369 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>310</v>
+        <v>240</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>342</v>
+        <v>252</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>236</v>
+        <v>336</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>224</v>
+        <v>350</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>221</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3281,7 +4105,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3679,7 +4503,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -3693,54 +4517,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3766,123 +4590,269 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E82EAB2-924B-4768-8530-4BA55407C2DB}">
+  <dimension ref="A2:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="72.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="35" style="21" customWidth="1"/>
+    <col min="5" max="5" width="60.875" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="C4" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="C11" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CC8D6-B7F9-46FF-973C-435946D48F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A1FAB-3C5E-4705-BA6F-429F09B0CCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24210" yWindow="405" windowWidth="24240" windowHeight="14235" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,15 @@
     <sheet name="head" sheetId="5" r:id="rId5"/>
     <sheet name="morph" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="464">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -756,9 +758,6 @@
     <t>adjectival clause</t>
   </si>
   <si>
-    <t>acl</t>
-  </si>
-  <si>
     <t>appos</t>
   </si>
   <si>
@@ -832,9 +831,6 @@
   </si>
   <si>
     <t>ccomp</t>
-  </si>
-  <si>
-    <t>open clausal complement (주어 공유하는 보어절)</t>
   </si>
   <si>
     <t>xcomp</t>
@@ -1376,14 +1372,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Finite verb : 인칭.시제 있는 동사
-Infinitive : to부정사 원형
-Participle : 분사.현재/과거
-Gerend :  동명사
-None : 없음(전치사, 명사 등)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">She ran </t>
     </r>
@@ -2128,12 +2116,383 @@
 her는 nsubj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ite verb : 인칭.시제 있는 동사
+Infinitive : to부정사 원형
+Participle : 분사.현재/과거
+Gerend :  동명사
+None : 없음(전치사, 명사 등)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>open clausal complement (주어 공유하는 보어절)
+주절 동사의 목적어처럼 쓰이는 보충절
+그 절은 자신만의 주어가 없고, 주절 주어와 공유
+보통 동사(V), 형용사(Adj), 형용사구, 부사구 등이 head가 됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사를 목적어로 태깅 안하는 경우 있음.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She likes running.
+    ○
+She likes swimming.
+    ○     □
+          □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사/현재분사 TAC가 VBG임을 이용해야 할 것 같음.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The teacher named John class president.
+            ○
+            ○     □          [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>named는 중심동사이니까 level 변동 없게해야 함.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We named our dog Max.
+   ○             □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog과 max을 복합명사로 태깅하므로
+SVO인지 SVOC인지 spaCy는 판단 불가함.
+보정함수도 100% 정확하게 확정할 수 없음.
+사용자에게 정하도록 해야함.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>They painted the wall blue.
+     ○                □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 "wall blue" 복합명사(compound)로 분석하는
+위 name과 똑같은 문제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사덩어리 정리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결합선 그리기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 레벨 안에서만 분석하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 적용하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She likes walking.  /  She is walking.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계사절 중심동사 딱 1개에만 태그</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계대명사 또는 한정사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wh-DeTerminer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the book </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I read
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Which</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> book do you want?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The man who helped me was kind.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>relcl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>who', 'me'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The book you gave me is great.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>you', 'me'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The man wearing a hat is my uncle.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>helped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gave</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wearing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The girl standing there is my sister.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>standing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>there</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I left because it was late.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advcl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>because', 'it', 'late'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>When she arrived, we started dinner.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrived</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그단어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>started</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>When', 'she'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think that she is right.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccomp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>think</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>['that', 'she', 'right']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She said she would come.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>said</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>['she', 'would']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to leave.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcomp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>want</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>['to']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She made him cry.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>made</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>him</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I found the movie boring.
+  ○               □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie를 compound로 태깅해 간접목적어 표시 안됨.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2240,8 +2599,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2269,6 +2644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,7 +2684,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2366,6 +2747,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3033,7 +3426,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -3054,7 +3447,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -3075,7 +3468,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -3128,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -3139,22 +3532,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -3162,7 +3555,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -3188,7 +3581,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -3266,7 +3659,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -3404,7 +3797,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3705,21 +4098,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CD337-DE9F-468D-9020-AE25C80F6EFD}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="54.75" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
@@ -3729,85 +4123,93 @@
       <c r="C1" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>227</v>
+        <v>410</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>223</v>
       </c>
@@ -3817,63 +4219,69 @@
       <c r="C9" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>220</v>
       </c>
@@ -3883,173 +4291,189 @@
       <c r="C15" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B29" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B30" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C30" s="9" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>217</v>
       </c>
@@ -4059,8 +4483,9 @@
       <c r="C31" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>225</v>
       </c>
@@ -4068,28 +4493,33 @@
         <v>224</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>335</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
@@ -4102,384 +4532,469 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188AACB-6C0D-4089-B65B-8518254B8352}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="2" max="3" width="24.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+    <sortCondition ref="A34"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4503,7 +5018,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -4517,54 +5032,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4578,7 +5093,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4590,126 +5105,129 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4717,10 +5235,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E82EAB2-924B-4768-8530-4BA55407C2DB}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4728,7 +5246,7 @@
     <col min="1" max="2" width="9" style="21"/>
     <col min="3" max="3" width="72.625" style="21" customWidth="1"/>
     <col min="4" max="4" width="35" style="21" customWidth="1"/>
-    <col min="5" max="5" width="60.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="64.625" style="21" customWidth="1"/>
     <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -4737,123 +5255,456 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="C14" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="E17" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="C11" s="22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C25" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B19FEC-9AB2-4339-96B2-F0335505C8D2}">
+  <dimension ref="B2:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="60.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="75.75" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>385</v>
-      </c>
+    </row>
+    <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>386</v>
-      </c>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DDD613-F4F5-43AA-8283-E7A03748FBFF}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A1FAB-3C5E-4705-BA6F-429F09B0CCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233A5B5A-B6E4-4901-A570-D292C3A49D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24210" yWindow="405" windowWidth="24240" windowHeight="14235" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24210" yWindow="405" windowWidth="24240" windowHeight="14235" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="475">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -2485,6 +2485,50 @@
   </si>
   <si>
     <t>movie를 compound로 태깅해 간접목적어 표시 안됨.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliary passive, 수동태의 조동사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, past tense</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, 3rd person present</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, non-3rd person present</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, base (infinitive)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, past participle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, gerund/present participle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aspect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perf, Prog</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2684,7 +2728,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2747,6 +2791,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3797,7 +3844,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4098,10 +4145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CD337-DE9F-468D-9020-AE25C80F6EFD}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4223,307 +4270,317 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>361</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>343</v>
+        <v>254</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>409</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4534,14 +4591,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188AACB-6C0D-4089-B65B-8518254B8352}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" style="7" customWidth="1"/>
-    <col min="2" max="3" width="24.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="32.75" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
@@ -4879,7 +4937,9 @@
       <c r="B26" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="D26" s="9" t="s">
         <v>151</v>
       </c>
@@ -4892,7 +4952,9 @@
       <c r="B27" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="D27" s="9" t="s">
         <v>160</v>
       </c>
@@ -4905,7 +4967,9 @@
       <c r="B28" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="D28" s="9" t="s">
         <v>157</v>
       </c>
@@ -4918,7 +4982,9 @@
       <c r="B29" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>470</v>
+      </c>
       <c r="D29" s="9" t="s">
         <v>154</v>
       </c>
@@ -4931,7 +4997,9 @@
       <c r="B30" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="D30" s="9" t="s">
         <v>151</v>
       </c>
@@ -4944,7 +5012,9 @@
       <c r="B31" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="D31" s="9" t="s">
         <v>148</v>
       </c>
@@ -5090,10 +5160,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAA0F52-A97C-4583-B104-CC37134222CF}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5104,129 +5174,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>306</v>
+      <c r="A1" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B10" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C11">
-    <sortCondition ref="A1:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition ref="A2:A12"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5237,7 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E82EAB2-924B-4768-8530-4BA55407C2DB}">
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5487,224 +5568,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="24" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="24" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233A5B5A-B6E4-4901-A570-D292C3A49D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24210" yWindow="405" windowWidth="24240" windowHeight="14235" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24210" yWindow="405" windowWidth="24240" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -2535,7 +2534,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2728,7 +2727,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2807,10 +2806,11 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{9790AA7A-A941-471F-ABF4-51E7F6718B18}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -2991,7 +2991,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -3000,7 +3000,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46845EA0-8801-4414-88EF-822399875071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4139,16 +4139,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CD337-DE9F-468D-9020-AE25C80F6EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4557,7 +4557,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="28" t="s">
         <v>293</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -4579,7 +4579,7 @@
       <c r="D35" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+  <sortState ref="A2:C35">
     <sortCondition ref="A2:A35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4588,7 +4588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188AACB-6C0D-4089-B65B-8518254B8352}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5062,7 +5062,7 @@
       <c r="E34" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+  <sortState ref="A2:D34">
     <sortCondition ref="A34"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5071,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13268DF6-5079-4F97-A6E4-944233636DE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5159,10 +5159,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAA0F52-A97C-4583-B104-CC37134222CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -5306,7 +5306,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+  <sortState ref="A2:C12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5315,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E82EAB2-924B-4768-8530-4BA55407C2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5483,7 +5483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B19FEC-9AB2-4339-96B2-F0335505C8D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5551,7 +5551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DDD613-F4F5-43AA-8283-E7A03748FBFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD86523-FCBB-44C1-9081-C83BB609333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24210" yWindow="405" windowWidth="24240" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -2534,7 +2535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2727,7 +2728,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2800,9 +2801,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2810,7 +2808,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -2991,7 +2989,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -3000,7 +2998,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -3305,7 +3303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -3840,11 +3838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4144,11 +4142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4557,7 +4555,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>293</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -4579,7 +4577,7 @@
       <c r="D35" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
     <sortCondition ref="A2:A35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4588,11 +4586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5062,7 +5060,7 @@
       <c r="E34" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
     <sortCondition ref="A34"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5071,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5159,7 +5157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5306,7 +5304,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5315,7 +5313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5483,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5551,7 +5549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5674,7 +5672,7 @@
       <c r="D9" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>437</v>
       </c>
       <c r="F9" s="25" t="s">
@@ -5691,7 +5689,7 @@
       <c r="D10" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>442</v>
       </c>
       <c r="F10" s="25" t="s">
@@ -5715,7 +5713,7 @@
       <c r="D12" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>447</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -5732,7 +5730,7 @@
       <c r="D13" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>451</v>
       </c>
       <c r="F13" s="24" t="s">
@@ -5740,19 +5738,19 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5773,7 +5771,7 @@
       <c r="D16" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>456</v>
       </c>
       <c r="F16" s="24" t="s">

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD86523-FCBB-44C1-9081-C83BB609333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C75D05-AA5A-4EFE-80B2-6CF15214B764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="Tag" sheetId="2" r:id="rId4"/>
     <sheet name="head" sheetId="5" r:id="rId5"/>
     <sheet name="morph" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
+    <sheet name="morph_PronType" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="515">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -789,9 +790,6 @@
   </si>
   <si>
     <t>She sings and dances.</t>
-  </si>
-  <si>
-    <t>coordinating conjunction</t>
   </si>
   <si>
     <t>cc</t>
@@ -2529,6 +2527,164 @@
   </si>
   <si>
     <t>Perf, Prog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinating conjunction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPendency label : 이 토큰이 **그 상위 토큰(= head)**과 어떤 문법적 관계를 맺고 있는가?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">morphological feature(형태소) : </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>**명사가 “특정한 것인지(한정)” 아닌지(비한정)**를 나타내는 정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한정/비한정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The : Def
+A : Ind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PronType(Pronoun Type)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prs</t>
+  </si>
+  <si>
+    <t>Personal pronoun</t>
+  </si>
+  <si>
+    <t>I, you, he, she, we, they</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Interrogative pronoun</t>
+  </si>
+  <si>
+    <t>who, what, which</t>
+  </si>
+  <si>
+    <t>Rel</t>
+  </si>
+  <si>
+    <t>Relative pronoun</t>
+  </si>
+  <si>
+    <t>who, which, that</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>Demonstrative pronoun</t>
+  </si>
+  <si>
+    <t>this, that, these, those</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>Indefinite pronoun</t>
+  </si>
+  <si>
+    <t>someone, anything, everybody</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>Reciprocal pronoun</t>
+  </si>
+  <si>
+    <t>each other, one another</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Totality pronoun</t>
+  </si>
+  <si>
+    <t>all, every</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>Negative pronoun</t>
+  </si>
+  <si>
+    <t>nobody, nothing</t>
+  </si>
+  <si>
+    <t>Emp</t>
+  </si>
+  <si>
+    <t>Emphatic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(강조형: e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Exc</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>(rare: 언어마다 다름)</t>
+  </si>
+  <si>
+    <t>article(관사)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part Of Speech</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2728,7 +2884,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2805,6 +2961,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3017,6 +3183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3471,7 +3641,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -3492,7 +3662,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -3513,7 +3683,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -3566,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -3577,22 +3747,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>365</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -3600,7 +3770,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -3626,7 +3796,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -3704,7 +3874,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -3837,13 +4007,254 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3855,39 +4266,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="31" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>68</v>
@@ -3898,10 +4300,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>68</v>
@@ -3912,10 +4314,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>68</v>
@@ -3926,10 +4328,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>68</v>
@@ -3954,10 +4356,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>68</v>
@@ -3968,10 +4370,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>68</v>
@@ -3982,13 +4384,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>52</v>
@@ -3996,10 +4398,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>52</v>
@@ -4010,13 +4412,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>52</v>
@@ -4024,10 +4426,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>68</v>
@@ -4038,13 +4440,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>52</v>
@@ -4052,13 +4454,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>52</v>
@@ -4080,10 +4482,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>68</v>
@@ -4094,13 +4496,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>52</v>
@@ -4108,10 +4510,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>68</v>
@@ -4122,19 +4524,36 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
+    <sortCondition ref="A3:A21"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4143,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4159,426 +4578,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>359</v>
+        <v>244</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>222</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>233</v>
+        <v>463</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>361</v>
+      <c r="B13" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>355</v>
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>357</v>
+        <v>250</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>334</v>
+      <c r="C22" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="C27" s="9" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>216</v>
+        <v>350</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="C34" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>332</v>
-      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
+    <row r="36" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
-    <sortCondition ref="A2:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C36">
+    <sortCondition ref="A3:A36"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4590,7 +5014,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4936,7 +5360,7 @@
         <v>163</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>151</v>
@@ -4951,7 +5375,7 @@
         <v>161</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>160</v>
@@ -4966,7 +5390,7 @@
         <v>158</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>157</v>
@@ -4981,7 +5405,7 @@
         <v>155</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>154</v>
@@ -4996,7 +5420,7 @@
         <v>152</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>151</v>
@@ -5011,7 +5435,7 @@
         <v>149</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>148</v>
@@ -5020,17 +5444,17 @@
     </row>
     <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5086,7 +5510,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -5100,54 +5524,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5158,10 +5582,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5171,141 +5595,160 @@
     <col min="3" max="3" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B8" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="17" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C13" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>303</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
-    <sortCondition ref="A2:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C14">
+    <sortCondition ref="A3:A14"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5313,6 +5756,165 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E929DCC-D418-4E0B-80C1-37F39C798CA4}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="30"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
+    <sortCondition ref="A3:A12"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:E25"/>
   <sheetViews>
@@ -5334,71 +5936,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>377</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>388</v>
-      </c>
       <c r="E8" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>400</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>402</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5408,18 +6010,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>374</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5427,51 +6029,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>380</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>385</v>
-      </c>
       <c r="E25" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5480,7 +6082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C23"/>
   <sheetViews>
@@ -5498,292 +6100,49 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>396</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C15" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+        <v>407</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C75D05-AA5A-4EFE-80B2-6CF15214B764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685CD6E0-A220-4533-B8B8-BDF34E0AE3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="565">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -756,9 +757,6 @@
     <t>relcl</t>
   </si>
   <si>
-    <t>adjectival clause</t>
-  </si>
-  <si>
     <t>appos</t>
   </si>
   <si>
@@ -804,25 +802,13 @@
     <t>The apple.</t>
   </si>
   <si>
-    <t>determiner (한정사)</t>
-  </si>
-  <si>
     <t>det</t>
   </si>
   <si>
-    <t>adjectival modifier</t>
-  </si>
-  <si>
     <t>amod</t>
   </si>
   <si>
-    <t>adverbial modifier (부사 수식어)</t>
-  </si>
-  <si>
     <t>advmod</t>
-  </si>
-  <si>
-    <t>adverbial clause modifier</t>
   </si>
   <si>
     <t>advcl</t>
@@ -1330,8 +1316,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">He left because he </t>
+    <t>Mood</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화법/양태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ind(직설법), Imp(명령법), Sub(가정법)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She ran </t>
     </r>
     <r>
       <rPr>
@@ -1343,7 +1341,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>was</t>
+      <t>quickly</t>
     </r>
     <r>
       <rPr>
@@ -1353,25 +1351,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> tired.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mood</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>화법/양태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ind(직설법), Imp(명령법), Sub(가정법)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She ran </t>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She wants to </t>
     </r>
     <r>
       <rPr>
@@ -1383,7 +1369,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>quickly</t>
+      <t>go</t>
     </r>
     <r>
       <rPr>
@@ -1398,8 +1384,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">She wants to </t>
+    <t>dobj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She gave </t>
     </r>
     <r>
       <rPr>
@@ -1411,7 +1401,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>go</t>
+      <t>him</t>
     </r>
     <r>
       <rPr>
@@ -1421,17 +1411,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dobj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She gave </t>
+      <t xml:space="preserve"> a book.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dative</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She gave him a </t>
     </r>
     <r>
       <rPr>
@@ -1443,7 +1433,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>him</t>
+      <t>book</t>
     </r>
     <r>
       <rPr>
@@ -1453,17 +1443,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a book.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dative</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She gave him a </t>
+      <t xml:space="preserve">.
+She loves </t>
     </r>
     <r>
       <rPr>
@@ -1475,7 +1456,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>book</t>
+      <t>me</t>
     </r>
     <r>
       <rPr>
@@ -1485,8 +1466,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.
-She loves </t>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct object (직접 목적어)
+object(일반 목적어)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>oprd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They elected him </t>
     </r>
     <r>
       <rPr>
@@ -1498,7 +1493,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>me</t>
+      <t>president</t>
     </r>
     <r>
       <rPr>
@@ -1513,17 +1508,16 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Direct object (직접 목적어)
-object(일반 목적어)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>oprd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">They elected him </t>
+    <t>acomp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He is </t>
     </r>
     <r>
       <rPr>
@@ -1535,7 +1529,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>president</t>
+      <t>smart</t>
     </r>
     <r>
       <rPr>
@@ -1550,16 +1544,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>acomp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">He is </t>
+    <t>SVOC object predicate (목적어 보어)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She is a </t>
     </r>
     <r>
       <rPr>
@@ -1571,7 +1561,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>smart</t>
+      <t>teacher</t>
     </r>
     <r>
       <rPr>
@@ -1586,12 +1576,17 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SVOC object predicate (목적어 보어)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She is a </t>
+    <t>npadvmod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun phrase as adverbial modifier
+명사지만 부사적 수식어처럼 쓰이는 경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He left </t>
     </r>
     <r>
       <rPr>
@@ -1603,7 +1598,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>teacher</t>
+      <t>yesterday</t>
     </r>
     <r>
       <rPr>
@@ -1613,30 +1608,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVC adjectival complement 형용사 보어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVC attribute 속성 보어, 명사보어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>npadvmod</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>noun phrase as adverbial modifier
-명사지만 부사적 수식어처럼 쓰이는 경우</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">He left </t>
+      <t xml:space="preserve">.
+He was named </t>
     </r>
     <r>
       <rPr>
@@ -1648,7 +1621,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>yesterday</t>
+      <t>Coco</t>
     </r>
     <r>
       <rPr>
@@ -1658,8 +1631,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.
-He was named </t>
+      <t>. / 이건 좀 이상함.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pobj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepositional object</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She sat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
     </r>
     <r>
       <rPr>
@@ -1671,7 +1679,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Coco</t>
+      <t>chair</t>
     </r>
     <r>
       <rPr>
@@ -1681,43 +1689,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. / 이건 좀 이상함.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pobj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepositional object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She sat </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the </t>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The man who </t>
     </r>
     <r>
       <rPr>
@@ -1729,7 +1707,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>chair</t>
+      <t>came</t>
     </r>
     <r>
       <rPr>
@@ -1745,7 +1723,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The teacher </t>
+      <t xml:space="preserve">We named the </t>
     </r>
     <r>
       <rPr>
@@ -1757,7 +1735,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>named</t>
+      <t>puppy</t>
     </r>
     <r>
       <rPr>
@@ -1767,13 +1745,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> John class president.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The man who </t>
+      <t xml:space="preserve"> Max.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She sings and dances.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The company named </t>
     </r>
     <r>
       <rPr>
@@ -1785,7 +1767,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>came</t>
+      <t>Lisa</t>
     </r>
     <r>
       <rPr>
@@ -1795,13 +1777,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We named the </t>
+      <t xml:space="preserve"> CEO.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She made </t>
     </r>
     <r>
       <rPr>
@@ -1813,7 +1795,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>puppy</t>
+      <t>him</t>
     </r>
     <r>
       <rPr>
@@ -1823,17 +1805,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Max.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>She sings and dances.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The company named </t>
+      <t xml:space="preserve"> leader. / 좀 이상항</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She said that he </t>
     </r>
     <r>
       <rPr>
@@ -1845,7 +1823,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Lisa</t>
+      <t>left</t>
     </r>
     <r>
       <rPr>
@@ -1855,13 +1833,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> CEO.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">They named their son </t>
+      <t xml:space="preserve">.
+She made him </t>
     </r>
     <r>
       <rPr>
@@ -1873,7 +1846,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>James</t>
+      <t>leader</t>
     </r>
     <r>
       <rPr>
@@ -1883,17 +1856,280 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>appositional modifier</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She made </t>
+      <t>. / 이상함</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound noun modifier 복합명사 수식어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head.idx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드의 인덱스 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We named the cat Coco.
+   ○         □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign_svoc_complement_as_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">She made him leader.
+    ○        </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    if dep in ["oprd", "xcomp", "ccomp"]:
+        if pos in ["NOUN", "PROPN", "PRON"]:
+            return "noun object complement"
+        elif pos == "ADJ":
+            return "adjective object complement"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">She made him leader.
+    ○ </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVOC에서 him을 nsubj(주어)로 잘못 태깅하는 경우가 있다.
+이 문장에서는 또 leader도 ccomp로 잘못 태깅함.
+그래서 위 1.에 의해 leader를 목적보어 값으로 바꾸고,
+repair_object_from_complement에 의해 him을 목적어 값으로 바꿈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_object_from_complement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적보어인 명사를 ccomp로 태그하는 경우가 있음. 
+이경우 pos가 명사류인 경우 명사목적보어 값으로 바꿈.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVOC에서 목적보어를 잘못 태깅하는 경우가 있다,
+assign_svoc_complement_as_name 함수를 통해 목적어가 있는 단서를 이용해
+목적보어 Coco (npadvmod)에 대해 명사목적보어값을 줌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇창에서 잘못 분석할 수 있으니,
+물어보는 루틴이 필요함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint 뒤에 복합명사가 올경우 오판이 매우 많음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇창에서 사용자 선택 루틴이 필요함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>live류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선재 방어 if문 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>die류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>die 다음 목적어 있다고 태깅하는 경우도 있음.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>live 다음 보어가 있다고 태깅하는 경우가 잦음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>They named their son James.
+     ○           □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>James의 head가 name이 아닌 son이라
+보정함수 적용이 안됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The company named Lisa CEO.
+                        [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I consider her a genius.
+  ○               [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 목적보어가 있는 걸 단서로 해서 앞쪽 목적어 빠지는걸 보정
+Lisa는 compound</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 목적보어가 있는 걸 단서로 해서 앞쪽 목적어 빠지는걸 보정
+her는 nsubj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ite verb : 인칭.시제 있는 동사
+Infinitive : to부정사 원형
+Participle : 분사.현재/과거
+Gerend :  동명사
+None : 없음(전치사, 명사 등)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>open clausal complement (주어 공유하는 보어절)
+주절 동사의 목적어처럼 쓰이는 보충절
+그 절은 자신만의 주어가 없고, 주절 주어와 공유
+보통 동사(V), 형용사(Adj), 형용사구, 부사구 등이 head가 됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사를 목적어로 태깅 안하는 경우 있음.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She likes running.
+    ○
+She likes swimming.
+    ○     □
+          □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명사/현재분사 TAC가 VBG임을 이용해야 할 것 같음.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The teacher named John class president.
+            ○
+            ○     □          [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>named는 중심동사이니까 level 변동 없게해야 함.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We named our dog Max.
+   ○             □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog과 max을 복합명사로 태깅하므로
+SVO인지 SVOC인지 spaCy는 판단 불가함.
+보정함수도 100% 정확하게 확정할 수 없음.
+사용자에게 정하도록 해야함.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>They painted the wall blue.
+     ○                □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 "wall blue" 복합명사(compound)로 분석하는
+위 name과 똑같은 문제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사덩어리 정리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결합선 그리기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 레벨 안에서만 분석하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 적용하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She likes walking.  /  She is walking.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계사절 중심동사 딱 1개에만 태그</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계대명사 또는 한정사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wh-DeTerminer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the book </t>
     </r>
     <r>
       <rPr>
@@ -1905,7 +2141,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>him</t>
+      <t>that</t>
     </r>
     <r>
       <rPr>
@@ -1915,13 +2151,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> leader. / 좀 이상항</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She said that he </t>
+      <t xml:space="preserve"> I read
+</t>
     </r>
     <r>
       <rPr>
@@ -1933,7 +2164,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>left</t>
+      <t>Which</t>
     </r>
     <r>
       <rPr>
@@ -1943,8 +2174,417 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.
-She made him </t>
+      <t xml:space="preserve"> book do you want?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The man who helped me was kind.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>relcl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>who', 'me'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The book you gave me is great.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>you', 'me'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The man wearing a hat is my uncle.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>helped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gave</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wearing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The girl standing there is my sister.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>standing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>there</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I left because it was late.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advcl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>because', 'it', 'late'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>When she arrived, we started dinner.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrived</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그단어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>started</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>When', 'she'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think that she is right.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccomp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>think</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>['that', 'she', 'right']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She said she would come.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>said</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>['she', 'would']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to leave.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcomp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>want</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>['to']</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>She made him cry.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>made</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>him</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I found the movie boring.
+  ○               □</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie를 compound로 태깅해 간접목적어 표시 안됨.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliary passive, 수동태의 조동사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, past tense</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, 3rd person present</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, non-3rd person present</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, base (infinitive)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, past participle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verb, gerund/present participle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aspect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perf, Prog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinating conjunction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPendency label : 이 토큰이 **그 상위 토큰(= head)**과 어떤 문법적 관계를 맺고 있는가?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">morphological feature(형태소) : </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>**명사가 “특정한 것인지(한정)” 아닌지(비한정)**를 나타내는 정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한정/비한정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The : Def
+A : Ind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PronType(Pronoun Type)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prs</t>
+  </si>
+  <si>
+    <t>Personal pronoun</t>
+  </si>
+  <si>
+    <t>I, you, he, she, we, they</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Interrogative pronoun</t>
+  </si>
+  <si>
+    <t>who, what, which</t>
+  </si>
+  <si>
+    <t>Rel</t>
+  </si>
+  <si>
+    <t>Relative pronoun</t>
+  </si>
+  <si>
+    <t>who, which, that</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>Demonstrative pronoun</t>
+  </si>
+  <si>
+    <t>this, that, these, those</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>Indefinite pronoun</t>
+  </si>
+  <si>
+    <t>someone, anything, everybody</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>Reciprocal pronoun</t>
+  </si>
+  <si>
+    <t>each other, one another</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Totality pronoun</t>
+  </si>
+  <si>
+    <t>all, every</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>Negative pronoun</t>
+  </si>
+  <si>
+    <t>nobody, nothing</t>
+  </si>
+  <si>
+    <t>Emp</t>
+  </si>
+  <si>
+    <t>Emphatic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(강조형: e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Exc</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>(rare: 언어마다 다름)</t>
+  </si>
+  <si>
+    <t>article(관사)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part Of Speech</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjectival clause - 명사를 수식하는 절</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the book that ou gave me
+The teacher </t>
     </r>
     <r>
       <rPr>
@@ -1956,7 +2596,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>leader</t>
+      <t>named</t>
     </r>
     <r>
       <rPr>
@@ -1966,280 +2606,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. / 이상함</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>compound</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>compound noun modifier 복합명사 수식어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>head</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>head.idx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드의 인덱스 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>We named the cat Coco.
-   ○         □</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>assign_svoc_complement_as_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>make</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">She made him leader.
-    ○        </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    if dep in ["oprd", "xcomp", "ccomp"]:
-        if pos in ["NOUN", "PROPN", "PRON"]:
-            return "noun object complement"
-        elif pos == "ADJ":
-            return "adjective object complement"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">She made him leader.
-    ○ </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVOC에서 him을 nsubj(주어)로 잘못 태깅하는 경우가 있다.
-이 문장에서는 또 leader도 ccomp로 잘못 태깅함.
-그래서 위 1.에 의해 leader를 목적보어 값으로 바꾸고,
-repair_object_from_complement에 의해 him을 목적어 값으로 바꿈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_object_from_complement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>목적보어인 명사를 ccomp로 태그하는 경우가 있음. 
-이경우 pos가 명사류인 경우 명사목적보어 값으로 바꿈.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVOC에서 목적보어를 잘못 태깅하는 경우가 있다,
-assign_svoc_complement_as_name 함수를 통해 목적어가 있는 단서를 이용해
-목적보어 Coco (npadvmod)에 대해 명사목적보어값을 줌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>챗봇창에서 잘못 분석할 수 있으니,
-물어보는 루틴이 필요함</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>appoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>appoint 뒤에 복합명사가 올경우 오판이 매우 많음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>챗봇창에서 사용자 선택 루틴이 필요함</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>live류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>선재 방어 if문 추가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>die류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>die 다음 목적어 있다고 태깅하는 경우도 있음.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>live 다음 보어가 있다고 태깅하는 경우가 잦음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>They named their son James.
-     ○           □</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>James의 head가 name이 아닌 son이라
-보정함수 적용이 안됨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The company named Lisa CEO.
-                        [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I consider her a genius.
-  ○               [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤에 목적보어가 있는 걸 단서로 해서 앞쪽 목적어 빠지는걸 보정
-Lisa는 compound</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤에 목적보어가 있는 걸 단서로 해서 앞쪽 목적어 빠지는걸 보정
-her는 nsubj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Fin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ite verb : 인칭.시제 있는 동사
-Infinitive : to부정사 원형
-Participle : 분사.현재/과거
-Gerend :  동명사
-None : 없음(전치사, 명사 등)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>open clausal complement (주어 공유하는 보어절)
-주절 동사의 목적어처럼 쓰이는 보충절
-그 절은 자신만의 주어가 없고, 주절 주어와 공유
-보통 동사(V), 형용사(Adj), 형용사구, 부사구 등이 head가 됨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명사를 목적어로 태깅 안하는 경우 있음.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>She likes running.
-    ○
-She likes swimming.
-    ○     □
-          □</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명사/현재분사 TAC가 VBG임을 이용해야 할 것 같음.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The teacher named John class president.
-            ○
-            ○     □          [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>named는 중심동사이니까 level 변동 없게해야 함.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>We named our dog Max.
-   ○             □</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dog과 max을 복합명사로 태깅하므로
-SVO인지 SVOC인지 spaCy는 판단 불가함.
-보정함수도 100% 정확하게 확정할 수 없음.
-사용자에게 정하도록 해야함.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>They painted the wall blue.
-     ○                □</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것도 "wall blue" 복합명사(compound)로 분석하는
-위 name과 똑같은 문제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>동사덩어리 정리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>결합선 그리기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 레벨 안에서만 분석하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 적용하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>She likes walking.  /  She is walking.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계사절 중심동사 딱 1개에만 태그</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계대명사 또는 한정사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wh-DeTerminer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the book </t>
+      <t xml:space="preserve"> John class president.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVC adjectival complement 형용사 보어 - be동사 등의 보어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adverbial clause modifier - 부사절</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He left when it rained.
+He left because he </t>
     </r>
     <r>
       <rPr>
@@ -2251,7 +2633,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>that</t>
+      <t>was</t>
     </r>
     <r>
       <rPr>
@@ -2261,8 +2643,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I read
-</t>
+      <t xml:space="preserve"> tired.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adverbial modifier (부사 수식어)- 부사처럼 동사 수식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjectival modifier - 명사 앞의 형용사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appositional modifier - 동격 명사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My friend, a teacher
+They named their son </t>
     </r>
     <r>
       <rPr>
@@ -2274,7 +2674,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Which</t>
+      <t>James</t>
     </r>
     <r>
       <rPr>
@@ -2284,407 +2684,1771 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> book do you want?</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The man who helped me was kind.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>relcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>man</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>who', 'me'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The book you gave me is great.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>you', 'me'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The man wearing a hat is my uncle.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>helped</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gave</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wearing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The girl standing there is my sister.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>standing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>there</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I left because it was late.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>was</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>advcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>left</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>because', 'it', 'late'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>When she arrived, we started dinner.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrived</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>태그단어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>started</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>When', 'she'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I think that she is right.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>is</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccomp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>think</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>['that', 'she', 'right']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>She said she would come.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>come</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>said</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>['she', 'would']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I want to leave.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xcomp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>want</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>['to']</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>She made him cry.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cry</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>made</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>him</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I found the movie boring.
-  ○               □</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie를 compound로 태깅해 간접목적어 표시 안됨.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>auxiliary passive, 수동태의 조동사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verb, past tense</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verb, 3rd person present</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verb, non-3rd person present</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verb, base (infinitive)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verb, past participle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verb, gerund/present participle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aspect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perf, Prog</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>coordinating conjunction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPendency label : 이 토큰이 **그 상위 토큰(= head)**과 어떤 문법적 관계를 맺고 있는가?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Definite</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">morphological feature(형태소) : </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>**명사가 “특정한 것인지(한정)” 아닌지(비한정)**를 나타내는 정보</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>한정/비한정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The : Def
-A : Ind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>art</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PronType(Pronoun Type)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prs</t>
-  </si>
-  <si>
-    <t>Personal pronoun</t>
-  </si>
-  <si>
-    <t>I, you, he, she, we, they</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Interrogative pronoun</t>
-  </si>
-  <si>
-    <t>who, what, which</t>
-  </si>
-  <si>
-    <t>Rel</t>
-  </si>
-  <si>
-    <t>Relative pronoun</t>
-  </si>
-  <si>
-    <t>who, which, that</t>
-  </si>
-  <si>
-    <t>Dem</t>
-  </si>
-  <si>
-    <t>Demonstrative pronoun</t>
-  </si>
-  <si>
-    <t>this, that, these, those</t>
-  </si>
-  <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>Indefinite pronoun</t>
-  </si>
-  <si>
-    <t>someone, anything, everybody</t>
-  </si>
-  <si>
-    <t>Rec</t>
-  </si>
-  <si>
-    <t>Reciprocal pronoun</t>
-  </si>
-  <si>
-    <t>each other, one another</t>
-  </si>
-  <si>
-    <t>Tot</t>
-  </si>
-  <si>
-    <t>Totality pronoun</t>
-  </si>
-  <si>
-    <t>all, every</t>
-  </si>
-  <si>
-    <t>Neg</t>
-  </si>
-  <si>
-    <t>Negative pronoun</t>
-  </si>
-  <si>
-    <t>nobody, nothing</t>
-  </si>
-  <si>
-    <t>Emp</t>
-  </si>
-  <si>
-    <t>Emphatic</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(강조형: e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Exc</t>
-  </si>
-  <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>(rare: 언어마다 다름)</t>
-  </si>
-  <si>
-    <t>article(관사)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part Of Speech</t>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVC attribute 속성 보어, 명사보어
+ / 주격보어(SVC에서 보어 역할)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>determiner (한정사 : 관사 the, a, this 등)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>완</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>call</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alled</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>had</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>had</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>had</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>had</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> being</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>call</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> been being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calling</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>been</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>will</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>been</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ere</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>had</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>been</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>been</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>본동사, has, had, been</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">본동사, being, </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">본동사, </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2692,7 +4456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2815,6 +4579,93 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="HY타자M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2854,7 +4705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2877,6 +4728,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2884,7 +4764,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2971,6 +4851,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3641,7 +5557,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -3662,7 +5578,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -3683,7 +5599,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -3736,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -3747,22 +5663,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -3770,7 +5686,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -3796,7 +5712,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -3874,7 +5790,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -4027,50 +5943,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>425</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -4082,36 +5998,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -4123,36 +6039,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -4164,53 +6080,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -4222,19 +6138,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -4247,6 +6163,333 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90673645-C872-4D54-B157-F3A4EEF5A18E}">
+  <dimension ref="C5:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="28"/>
+      <c r="D6" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="33"/>
+      <c r="K7" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33"/>
+      <c r="K9" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33"/>
+      <c r="K10" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D11" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D12" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D13" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="43"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D15" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D16" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="K17" s="28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D18" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D19" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D20" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K10:M14"/>
+    <mergeCell ref="N10:P14"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4254,7 +6497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4267,7 +6510,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4565,7 +6808,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4579,7 +6822,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4594,87 +6837,87 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>352</v>
+        <v>504</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>326</v>
+        <v>507</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>246</v>
+        <v>509</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>244</v>
+        <v>510</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>357</v>
+        <v>511</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>345</v>
+        <v>334</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>513</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -4692,71 +6935,71 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -4774,181 +7017,181 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>242</v>
+        <v>514</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -4972,31 +7215,31 @@
         <v>224</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -5013,8 +7256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5360,7 +7603,7 @@
         <v>163</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>151</v>
@@ -5375,7 +7618,7 @@
         <v>161</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>160</v>
@@ -5390,7 +7633,7 @@
         <v>158</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>157</v>
@@ -5405,7 +7648,7 @@
         <v>155</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>154</v>
@@ -5420,7 +7663,7 @@
         <v>152</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>151</v>
@@ -5435,7 +7678,7 @@
         <v>149</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>148</v>
@@ -5444,17 +7687,17 @@
     </row>
     <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="16" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5510,7 +7753,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -5524,54 +7767,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5585,7 +7828,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5597,153 +7840,153 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5772,136 +8015,136 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D12" s="30"/>
     </row>
@@ -5936,71 +8179,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>366</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6010,18 +8253,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6029,51 +8272,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6100,48 +8343,48 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" s="21" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C15" s="21" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" s="21" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685CD6E0-A220-4533-B8B8-BDF34E0AE3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="570">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -4451,11 +4450,55 @@
     <t xml:space="preserve">본동사, </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동 문장에서 행위자(by + 명사)의 전치사 'by'**</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The book was written </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the author.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADPosition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사(preposition)**와 **후치사(postposition)**를 모두 포함하는 통칭적인 품사 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4873,6 +4916,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4881,16 +4930,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -5071,7 +5114,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -5080,7 +5123,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -5389,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -5924,7 +5967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6167,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90673645-C872-4D54-B157-F3A4EEF5A18E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6192,12 +6235,12 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="39" t="s">
         <v>519</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="39" t="s">
         <v>535</v>
       </c>
       <c r="H6" s="33"/>
@@ -6214,12 +6257,12 @@
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="39" t="s">
         <v>520</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="39" t="s">
         <v>536</v>
       </c>
       <c r="H7" s="35"/>
@@ -6236,12 +6279,12 @@
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>521</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="39" t="s">
         <v>537</v>
       </c>
       <c r="H8" s="35"/>
@@ -6254,12 +6297,12 @@
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>522</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="39" t="s">
         <v>538</v>
       </c>
       <c r="H9" s="35"/>
@@ -6276,126 +6319,126 @@
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="39" t="s">
         <v>523</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="39" t="s">
         <v>539</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="33"/>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="41" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="39"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="39" t="s">
         <v>524</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="39" t="s">
         <v>540</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="33"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
         <v>525</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="39" t="s">
         <v>541</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="33"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="39" t="s">
         <v>526</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="39" t="s">
         <v>542</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="43"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="39" t="s">
         <v>527</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="39" t="s">
         <v>543</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="39" t="s">
         <v>528</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="39" t="s">
         <v>544</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="39" t="s">
         <v>529</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="39" t="s">
         <v>545</v>
       </c>
       <c r="H17" s="35"/>
@@ -6405,12 +6448,12 @@
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="39" t="s">
         <v>530</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="39" t="s">
         <v>546</v>
       </c>
       <c r="H18" s="35"/>
@@ -6423,12 +6466,12 @@
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="39" t="s">
         <v>531</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="39" t="s">
         <v>547</v>
       </c>
       <c r="H19" s="35"/>
@@ -6441,12 +6484,12 @@
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="39" t="s">
         <v>532</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="39" t="s">
         <v>548</v>
       </c>
       <c r="H20" s="35"/>
@@ -6459,24 +6502,24 @@
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="39" t="s">
         <v>533</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="39" t="s">
         <v>549</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="39" t="s">
         <v>534</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="39" t="s">
         <v>550</v>
       </c>
       <c r="H22" s="35"/>
@@ -6494,307 +6537,356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="13.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="73.375" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="F21" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
+  <sortState ref="A3:D21">
     <sortCondition ref="A3:A21"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6804,11 +6896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6887,364 +6979,376 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>512</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>222</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>232</v>
+        <v>452</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>230</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B27" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>340</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>348</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D37" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C36">
+  <sortState ref="A3:C36">
     <sortCondition ref="A3:A36"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7253,11 +7357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7727,7 +7831,7 @@
       <c r="E34" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+  <sortState ref="A2:D34">
     <sortCondition ref="A34"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7736,7 +7840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7824,7 +7928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7990,7 +8094,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C14">
+  <sortState ref="A3:C14">
     <sortCondition ref="A3:A14"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7999,7 +8103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E929DCC-D418-4E0B-80C1-37F39C798CA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8149,7 +8253,7 @@
       <c r="D12" s="30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
+  <sortState ref="A3:C12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8158,7 +8262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8326,7 +8430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -6900,7 +6900,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="2"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
     <sheet name="POS" sheetId="3" r:id="rId2"/>
-    <sheet name="dep" sheetId="4" r:id="rId3"/>
-    <sheet name="Tag" sheetId="2" r:id="rId4"/>
+    <sheet name="Tag" sheetId="2" r:id="rId3"/>
+    <sheet name="dep" sheetId="4" r:id="rId4"/>
     <sheet name="head" sheetId="5" r:id="rId5"/>
     <sheet name="morph" sheetId="6" r:id="rId6"/>
     <sheet name="morph_PronType" sheetId="10" r:id="rId7"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="586">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>불변화사 (to, 's 등)</t>
-  </si>
-  <si>
-    <t>PART</t>
   </si>
   <si>
     <t>NUM</t>
@@ -2103,10 +2100,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>She likes walking.  /  She is walking.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>관계사절 중심동사 딱 1개에만 태그</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2573,10 +2566,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Part Of Speech</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>adjectival clause - 명사를 수식하는 절</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4494,12 +4483,230 @@
     <t>전치사(preposition)**와 **후치사(postposition)**를 모두 포함하는 통칭적인 품사 이름</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">              &gt;
+The committee named John the leader.
+              ○_____□</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name는 SVO, SVO[ 가능
+사용자 처리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>poss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>possessive modifier (소유 수식어)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They elected </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>her</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> president.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcomp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepositional complement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">She is interested in what he </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>said</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+He got into trouble </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>due</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to mistakes he had made.
+위  태깅은 이상함?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사 뒤에 나오는 절(문장 형태)이 전치사의 목적어 역할을
+할 때, 그 절의 동사(head)가 pcomp로 태깅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Part-of-Speech tag)의 정밀한 버전 : 세부적인 품사</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Part Of Speech</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 일반적인 품사</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>He got into trouble due to mistakes he had made.
+   ○   ▽____□       ▽______□                    
+                                       ....○</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>due는 형용사인데 전치사로 태깅
+due를 형용사로 to를 전치사로 수정 필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    |     |
+She likes walking.
+    ○</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    |  i
+She is walking.
+    ...○</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 맞는데 위와 비교</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">They elected her president.
+     ○___________□   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although it was late, they kept working.
+◇                          ○
+◇           ○___(</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4709,6 +4916,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4807,7 +5022,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4929,6 +5144,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5536,7 +5754,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -5600,7 +5818,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -5621,7 +5839,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -5642,7 +5860,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -5695,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -5706,22 +5924,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5729,7 +5947,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5755,7 +5973,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -5833,7 +6051,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -5971,7 +6189,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5986,50 +6204,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>406</v>
-      </c>
       <c r="F2" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>407</v>
-      </c>
       <c r="F3" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>411</v>
-      </c>
       <c r="F4" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -6041,36 +6259,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>419</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -6082,36 +6300,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="E9" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>424</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>430</v>
-      </c>
       <c r="F10" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -6123,53 +6341,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E12" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>434</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>438</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>447</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -6181,19 +6399,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>443</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -6221,71 +6439,71 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>515</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
       <c r="D6" s="39" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="K6" s="36" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="36" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" s="39" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="39" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="33"/>
       <c r="K7" s="32" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" s="39" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="33"/>
@@ -6298,56 +6516,56 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" s="39" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="39" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="33"/>
       <c r="K9" s="37" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="37" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" s="39" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="39" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="33"/>
       <c r="K10" s="41" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="43" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="O10" s="43"/>
       <c r="P10" s="41"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" s="39" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="39" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="33"/>
@@ -6360,12 +6578,12 @@
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" s="39" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="39" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="33"/>
@@ -6378,12 +6596,12 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" s="39" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="39" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33"/>
@@ -6410,117 +6628,117 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" s="39" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="39" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" s="39" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="33"/>
       <c r="G16" s="39" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="39" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="33"/>
       <c r="G17" s="39" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="39" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="33"/>
       <c r="G18" s="39" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
       <c r="G19" s="39" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="39" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="33"/>
       <c r="G20" s="39" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="33"/>
       <c r="J20" s="28" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="39" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="39" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" s="39" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="33"/>
       <c r="G22" s="39" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
@@ -6541,7 +6759,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6557,13 +6775,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -6579,7 +6797,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -6595,13 +6813,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>68</v>
@@ -6610,12 +6828,12 @@
         <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -6631,11 +6849,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>68</v>
@@ -6647,11 +6865,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>68</v>
@@ -6663,7 +6881,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -6679,11 +6897,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>68</v>
@@ -6695,11 +6913,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>68</v>
@@ -6711,11 +6929,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>52</v>
@@ -6727,7 +6945,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
@@ -6743,7 +6961,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>194</v>
+        <v>574</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
@@ -6775,11 +6993,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>52</v>
@@ -6897,471 +7115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="54.75" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D37" s="9"/>
-    </row>
-  </sheetData>
-  <sortState ref="A3:C36">
-    <sortCondition ref="A3:A36"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7375,464 +7132,956 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>457</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>456</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C32" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A2:D34">
     <sortCondition ref="A34"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="44.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="54.75" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:C36">
+    <sortCondition ref="A3:A36"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7857,7 +8106,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -7871,54 +8120,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7931,8 +8180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7944,153 +8193,153 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>460</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>465</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>317</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>294</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -8119,136 +8368,136 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>481</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>483</v>
       </c>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>496</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>498</v>
       </c>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>501</v>
       </c>
       <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>484</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>486</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>475</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>477</v>
       </c>
       <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>495</v>
       </c>
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>472</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>474</v>
       </c>
       <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>487</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>489</v>
       </c>
       <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>480</v>
       </c>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>490</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>492</v>
       </c>
       <c r="D12" s="30"/>
     </row>
@@ -8266,7 +8515,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8283,71 +8532,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>365</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>376</v>
-      </c>
       <c r="E8" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>388</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>390</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8357,18 +8606,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8376,51 +8625,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>368</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>370</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>373</v>
-      </c>
       <c r="E25" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -8431,10 +8680,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8447,48 +8696,108 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>384</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="21" t="s">
+    </row>
+    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="21" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="21" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="21" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="21" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AF91D7-083D-404B-B4A3-47026C1AAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="5"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="588">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -684,9 +685,6 @@
   </si>
   <si>
     <t>ADV</t>
-  </si>
-  <si>
-    <t>전치사</t>
   </si>
   <si>
     <t>ADP</t>
@@ -4701,11 +4699,23 @@
 ◇           ○___(</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>prep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>preposition(전치사)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5136,6 +5146,9 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5145,13 +5158,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -5332,7 +5342,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -5341,7 +5351,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -5360,10 +5370,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5650,7 +5656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -5754,7 +5760,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -5818,7 +5824,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -5839,7 +5845,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -5860,7 +5866,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -5913,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -5924,22 +5930,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>352</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5947,7 +5953,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5973,7 +5979,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -6051,7 +6057,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -6185,7 +6191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6204,50 +6210,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>405</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -6259,36 +6265,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="E6" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>414</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -6300,36 +6306,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>423</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>426</v>
-      </c>
       <c r="D10" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E10" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>428</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -6341,53 +6347,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>433</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="24" t="s">
         <v>437</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -6399,19 +6405,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="24" t="s">
         <v>442</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -6428,7 +6434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C5:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6439,71 +6445,71 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="28" t="s">
         <v>514</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
       <c r="D6" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="K6" s="36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="33"/>
       <c r="K7" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="33"/>
@@ -6516,101 +6522,101 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="33"/>
       <c r="K9" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" s="39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="33"/>
-      <c r="K10" s="41" t="s">
-        <v>551</v>
-      </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="43" t="s">
-        <v>555</v>
-      </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="41"/>
+      <c r="K10" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="O10" s="44"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" s="39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="33"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" s="39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="33"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D14" s="40"/>
@@ -6619,126 +6625,126 @@
       <c r="G14" s="40"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" s="39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" s="39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="33"/>
       <c r="G16" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="33"/>
       <c r="G17" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="39" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="33"/>
       <c r="G18" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
       <c r="G19" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="33"/>
       <c r="G20" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="33"/>
       <c r="J20" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>560</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="39" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="33"/>
       <c r="G22" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
@@ -6755,11 +6761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6775,13 +6781,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -6797,7 +6803,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -6813,13 +6819,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>209</v>
+        <v>587</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>68</v>
@@ -6828,7 +6834,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,7 +6967,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
@@ -7104,7 +7110,7 @@
       <c r="F21" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:D21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
     <sortCondition ref="A3:A21"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7114,11 +7120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7133,7 +7139,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7469,7 +7475,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>151</v>
@@ -7484,7 +7490,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>160</v>
@@ -7499,7 +7505,7 @@
         <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>157</v>
@@ -7514,7 +7520,7 @@
         <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>154</v>
@@ -7529,7 +7535,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>151</v>
@@ -7544,7 +7550,7 @@
         <v>149</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>148</v>
@@ -7553,17 +7559,17 @@
     </row>
     <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -7593,7 +7599,7 @@
       <c r="E35" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
     <sortCondition ref="A34"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7602,11 +7608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7620,7 +7626,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7637,451 +7643,461 @@
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>501</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>502</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>504</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>505</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>508</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>509</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>338</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>339</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>575</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>571</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>216</v>
+        <v>585</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>214</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="B38" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
+    <row r="40" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:C36">
-    <sortCondition ref="A3:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C37">
+    <sortCondition ref="A3:A37"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8089,7 +8105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8106,7 +8122,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -8120,54 +8136,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -8177,11 +8193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8193,157 +8209,157 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>459</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>467</v>
-      </c>
       <c r="D5" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>293</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>296</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C14">
     <sortCondition ref="A3:A14"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8352,7 +8368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8368,141 +8384,141 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>481</v>
       </c>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="18" t="s">
         <v>498</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>499</v>
       </c>
       <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="C6" s="18" t="s">
         <v>483</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>484</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="C7" s="18" t="s">
         <v>474</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>475</v>
       </c>
       <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="C8" s="18" t="s">
         <v>492</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>493</v>
       </c>
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="18" t="s">
         <v>471</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>472</v>
       </c>
       <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="C11" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="C12" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>490</v>
-      </c>
       <c r="D12" s="30"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8511,7 +8527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8532,71 +8548,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>364</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>375</v>
-      </c>
       <c r="E8" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>389</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8606,18 +8622,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>361</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8625,51 +8641,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>367</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>369</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>372</v>
-      </c>
       <c r="E25" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8679,7 +8695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -8696,44 +8712,44 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>383</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>385</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>567</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>579</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -8742,16 +8758,16 @@
     </row>
     <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>582</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -8760,7 +8776,7 @@
     </row>
     <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C19" s="22"/>
     </row>
@@ -8782,22 +8798,22 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AF91D7-083D-404B-B4A3-47026C1AAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8426CD-038B-45D1-ABBB-43D03461AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -7123,8 +7123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7611,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8197,7 +8197,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8426CD-038B-45D1-ABBB-43D03461AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="590">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -770,12 +769,6 @@
   </si>
   <si>
     <t>case</t>
-  </si>
-  <si>
-    <t>She said that she was tired.</t>
-  </si>
-  <si>
-    <t>marker (종속절 접속사 등)</t>
   </si>
   <si>
     <t>mark</t>
@@ -1744,10 +1737,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>She sings and dances.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The company named </t>
     </r>
@@ -2410,10 +2399,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>coordinating conjunction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DEPendency label : 이 토큰이 **그 상위 토큰(= head)**과 어떤 문법적 관계를 맺고 있는가?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4711,11 +4696,108 @@
     <t>전치사</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>marker (종속절 접속사 등)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She said </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> she was tired.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinating conjunction (등위 접속사)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subordinating conjunction (종속 접속사)나
+subordinate clause introducer
+if, because, although, since, when, while, unless, as, after, before, once, until, etc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She sings </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dances.
+He was tired </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> happy.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>절과 절, 구와 구, 단어와 단어를 같은 계급으로 연결할 때.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5161,7 +5243,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -5342,7 +5424,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -5351,7 +5433,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -5656,7 +5738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -5824,7 +5906,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -5845,7 +5927,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -5866,7 +5948,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -5919,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -5930,22 +6012,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5953,7 +6035,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5979,7 +6061,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -6057,7 +6139,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -6191,7 +6273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6210,50 +6292,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>402</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -6265,36 +6347,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -6306,36 +6388,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>420</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>425</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -6347,53 +6429,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>430</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>434</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>443</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -6405,19 +6487,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>439</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -6434,7 +6516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6445,71 +6527,71 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
       <c r="D6" s="39" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="K6" s="36" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="36" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" s="39" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="39" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="33"/>
       <c r="K7" s="32" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="32" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="39" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="33"/>
@@ -6522,56 +6604,56 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" s="39" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="39" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="33"/>
       <c r="K9" s="37" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="37" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" s="39" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="39" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="33"/>
       <c r="K10" s="42" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="O10" s="44"/>
       <c r="P10" s="42"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" s="39" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="39" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="33"/>
@@ -6584,12 +6666,12 @@
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" s="39" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="39" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="33"/>
@@ -6602,12 +6684,12 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" s="39" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="39" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33"/>
@@ -6634,117 +6716,117 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" s="39" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="39" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" s="39" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="33"/>
       <c r="G16" s="39" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="39" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="33"/>
       <c r="G17" s="39" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="39" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="33"/>
       <c r="G18" s="39" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="28" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="39" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
       <c r="G19" s="39" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="39" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="33"/>
       <c r="G20" s="39" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="33"/>
       <c r="J20" s="28" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="39" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="39" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" s="39" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="33"/>
       <c r="G22" s="39" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
@@ -6761,7 +6843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6781,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B1" s="31"/>
     </row>
@@ -6822,10 +6904,10 @@
         <v>209</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>68</v>
@@ -6834,7 +6916,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6967,7 +7049,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
@@ -7110,7 +7192,7 @@
       <c r="F21" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
+  <sortState ref="A3:D21">
     <sortCondition ref="A3:A21"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7120,7 +7202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -7139,7 +7221,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7475,7 +7557,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>151</v>
@@ -7490,7 +7572,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>160</v>
@@ -7505,7 +7587,7 @@
         <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>157</v>
@@ -7520,7 +7602,7 @@
         <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>154</v>
@@ -7535,7 +7617,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>151</v>
@@ -7550,7 +7632,7 @@
         <v>149</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>148</v>
@@ -7559,17 +7641,17 @@
     </row>
     <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -7599,7 +7681,7 @@
       <c r="E35" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+  <sortState ref="A2:D34">
     <sortCondition ref="A34"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7608,11 +7690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7626,7 +7708,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7643,73 +7725,73 @@
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -7718,22 +7800,22 @@
         <v>224</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -7751,10 +7833,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -7771,51 +7853,53 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D14" s="9"/>
+        <v>586</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -7833,87 +7917,89 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>232</v>
+        <v>584</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>585</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -7929,120 +8015,120 @@
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>338</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>571</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -8067,45 +8153,46 @@
         <v>222</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D40" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C37">
+  <sortState ref="A3:C37">
     <sortCondition ref="A3:A37"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8122,7 +8209,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -8136,54 +8223,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8193,7 +8280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8209,157 +8296,157 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>466</v>
-      </c>
       <c r="D5" s="28" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>295</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C14">
+  <sortState ref="A3:C14">
     <sortCondition ref="A3:A14"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8368,7 +8455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8384,141 +8471,141 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D12" s="30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
+  <sortState ref="A3:C12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8527,7 +8614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8548,71 +8635,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8622,18 +8709,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8641,51 +8728,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +8782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -8712,44 +8799,44 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -8758,16 +8845,16 @@
     </row>
     <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -8776,7 +8863,7 @@
     </row>
     <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C19" s="22"/>
     </row>
@@ -8798,22 +8885,22 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE7F23-BD40-483A-BE1E-7DC8C5765EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="990" windowWidth="21435" windowHeight="12960" activeTab="3"/>
+    <workbookView xWindow="-21375" yWindow="1200" windowWidth="21435" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
     <sheet name="POS" sheetId="3" r:id="rId2"/>
-    <sheet name="Tag" sheetId="2" r:id="rId3"/>
+    <sheet name="TAG" sheetId="2" r:id="rId3"/>
     <sheet name="dep" sheetId="4" r:id="rId4"/>
     <sheet name="head" sheetId="5" r:id="rId5"/>
     <sheet name="morph" sheetId="6" r:id="rId6"/>
-    <sheet name="morph_PronType" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="679">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -636,9 +636,6 @@
   </si>
   <si>
     <t>PRON</t>
-  </si>
-  <si>
-    <t>불변화사 (to, 's 등)</t>
   </si>
   <si>
     <t>NUM</t>
@@ -982,9 +979,6 @@
     <t>VerbForm</t>
   </si>
   <si>
-    <t>동사형태</t>
-  </si>
-  <si>
     <t>Voice</t>
   </si>
   <si>
@@ -1266,31 +1260,6 @@
   </si>
   <si>
     <t>구두점 종류</t>
-  </si>
-  <si>
-    <r>
-      <t>Comm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Peri</t>
-    </r>
   </si>
   <si>
     <t>children</t>
@@ -2399,10 +2368,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DEPendency label : 이 토큰이 **그 상위 토큰(= head)**과 어떤 문법적 관계를 맺고 있는가?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Definite</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4602,20 +4567,74 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">POS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>He got into trouble due to mistakes he had made.
+   ○   ▽____□       ▽______□                    
+                                       ....○</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>due는 형용사인데 전치사로 태깅
+due를 형용사로 to를 전치사로 수정 필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    |     |
+She likes walking.
+    ○</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    |  i
+She is walking.
+    ...○</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 맞는데 위와 비교</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">They elected her president.
+     ○___________□   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although it was late, they kept working.
+◇                          ○
+◇           ○___(</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>preposition(전치사)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker (종속절 접속사 등)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She said </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tag</t>
+      <t>that</t>
     </r>
     <r>
       <rPr>
@@ -4625,84 +4644,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Part-of-Speech tag)의 정밀한 버전 : 세부적인 품사</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Part Of Speech</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> she was tired.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinating conjunction (등위 접속사)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subordinating conjunction (종속 접속사)나
+subordinate clause introducer
+if, because, although, since, when, while, unless, as, after, before, once, until, etc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She sings </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 일반적인 품사</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>He got into trouble due to mistakes he had made.
-   ○   ▽____□       ▽______□                    
-                                       ....○</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>due는 형용사인데 전치사로 태깅
-due를 형용사로 to를 전치사로 수정 필요</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    |     |
-She likes walking.
-    ○</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    |  i
-She is walking.
-    ...○</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 맞는데 위와 비교</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">They elected her president.
-     ○___________□   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Although it was late, they kept working.
-◇                          ○
-◇           ○___(</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>prep</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>preposition(전치사)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>전치사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>marker (종속절 접속사 등)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She said </t>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dances.
+He was tired </t>
     </r>
     <r>
       <rPr>
@@ -4714,7 +4695,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>that</t>
+      <t>but</t>
     </r>
     <r>
       <rPr>
@@ -4724,58 +4705,711 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> she was tired.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>coordinating conjunction (등위 접속사)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>subordinating conjunction (종속 접속사)나
-subordinate clause introducer
-if, because, although, since, when, while, unless, as, after, before, once, until, etc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She sings </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> happy.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>절과 절, 구와 구, 단어와 단어를 같은 계급으로 연결할 때.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>불변화사 (to, 's 등), not</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각사, 불변화사) 역할을 하는 단어에 태깅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerbType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사의 타입</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사의 형태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux : 조동사
+mod : modal
+main : 메인 동사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerbType 값</t>
+  </si>
+  <si>
+    <t>조동사 (auxiliary)</t>
+  </si>
+  <si>
+    <t>have, be, do (영어)</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>조동사(modal)</t>
+  </si>
+  <si>
+    <t>can, could, should</t>
+  </si>
+  <si>
+    <t>계사(copula)</t>
+  </si>
+  <si>
+    <t>be (It is a dog)</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>메인 동사(main verb)</t>
+  </si>
+  <si>
+    <t>run, eat, go</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>경동사(light verb)</t>
+  </si>
+  <si>
+    <t>give (a smile), take (a walk) 같은 light verb constructions</t>
+  </si>
+  <si>
+    <t>impersonal</t>
+  </si>
+  <si>
+    <t>비인칭 동사 (impersonal)</t>
+  </si>
+  <si>
+    <t>스페인어 haber, 프랑스어 il faut</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>조동사</t>
+  </si>
+  <si>
+    <t>aux와 같은 의미로 쓰기도 해</t>
+  </si>
+  <si>
+    <t>VerbType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>nominal subject</t>
+  </si>
+  <si>
+    <r>
+      <t>명사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 된 일반 주어. 문장의 주체.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"She runs." → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>She</t>
+    </r>
+  </si>
+  <si>
+    <t>nsubj:pass</t>
+  </si>
+  <si>
+    <t>passive nominal subject</t>
+  </si>
+  <si>
+    <r>
+      <t>수동태 문장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서의 주어. 즉, 동작의 대상.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"The cake was eaten." → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>The cake</t>
+    </r>
+  </si>
+  <si>
+    <t>clausal subject</t>
+  </si>
+  <si>
+    <t>**절(문장)**이 주어일 때. (절이 주어 역할)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"That she left early surprised me." → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>That she left early</t>
+    </r>
+  </si>
+  <si>
+    <t>csubj:pass</t>
+  </si>
+  <si>
+    <r>
+      <t>수동태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절 주어</t>
+    </r>
+  </si>
+  <si>
+    <t>(거의 안 쓰이지만) "That he was seen is surprising."</t>
+  </si>
+  <si>
+    <t>expl</t>
+  </si>
+  <si>
+    <t>expletive subject</t>
+  </si>
+  <si>
+    <r>
+      <t>가짜 주어(형식 주어)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 문법적 자리를 채우는 주어</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"It is raining." → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>It</t>
+    </r>
+  </si>
+  <si>
+    <t>expl:subj</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일부 언어에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명시적인 expl 주어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 표현</t>
+    </r>
+  </si>
+  <si>
+    <t>주어에 태깅될 수 있는 주요 의존 관계(Dependency Relation)</t>
+  </si>
+  <si>
+    <t>expletive subject</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(영어엔 거의 없음, 프랑스어 같은 데서), 형식(가짜) 주어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>루트 (Root)</t>
+  </si>
+  <si>
+    <t>문장의 최상위 동사 (메인 주절 동사)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>runs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Complement Clause</t>
+  </si>
+  <si>
+    <t>주절의 동사가 목적어로 절(문장)을 가질 때 사용되는 종속절의 메인 동사</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think [you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>know</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> it].</t>
+    </r>
+  </si>
+  <si>
+    <t>Open clausal complement</t>
+  </si>
+  <si>
+    <t>주절의 동사와 같은 주어를 공유하는 절. 주어 없이 붙는 절의 메인 동사</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She wants [to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
+    <t>Adverbial Clause Modifier</t>
+  </si>
+  <si>
+    <t>부사절 (조건, 이유, 시간 등) 종속절의 메인 동사</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I will call you [when I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>arrive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>Adnominal Clause Modifier</t>
+  </si>
+  <si>
+    <t>명사를 수식하는 관계절(형용사절) 메인 동사</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the book [that you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>gave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> me]</t>
+    </r>
+  </si>
+  <si>
+    <t>Relative Clause</t>
+  </si>
+  <si>
+    <t>관계절(Relative Clause) — 명사를 꾸미는 절의 메인 동사</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the person [who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>called</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> you]</t>
+    </r>
+  </si>
+  <si>
+    <t>parataxis</t>
+  </si>
+  <si>
+    <t>Parataxis</t>
+  </si>
+  <si>
+    <t>병렬 문장 연결 (쉼표/세미콜론 등으로 연결된 독립절 동사)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I came, [I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>saw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">], [I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>conquered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
+    <t>Conjunct</t>
+  </si>
+  <si>
+    <t>and/or로 연결된 병렬 절의 메인 동사</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He sings and [he </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>dances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>의존 관계가 불명확할 때 임시로 붙이는 태그 (애매한 구문)</t>
+  </si>
+  <si>
+    <t>(잘 안 씀)</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
+  </si>
+  <si>
+    <t>조동사 (be, have, will 같은 것)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> seen it.</t>
+    </r>
+  </si>
+  <si>
+    <t>Copula</t>
+  </si>
+  <si>
+    <t>서술동사 (be, seem 같은 것)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> smart.</t>
+    </r>
+  </si>
+  <si>
+    <t>Finite Verb (주로 활용하는 동사)에 태깅될 수 있는 주요 Dependency 값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPendency label : 이 토큰이 **그 상위 토큰(= head)**과 어떤 문법적 관계를 맺고 있는가? / 항상 소문자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Part Of Speech</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> : 일반적인 품사  /  항상 대문자</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dances.
-He was tired </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>but</t>
+      <t>tag</t>
     </r>
     <r>
       <rPr>
@@ -4785,19 +5419,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> happy.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>절과 절, 구와 구, 단어와 단어를 같은 계급으로 연결할 때.</t>
+      <t xml:space="preserve"> (Part-of-Speech tag)의 정밀한 버전 : 세부적인 품사  /  항상 대문자</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>He had been being called him dog.
+   ...............○__________[</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>call은 보어 가지지 않음, SVO, SVOC 가능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Comm(쉼표)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Peri(마침표, 느낌표, 물음표), semi(;), colon(:)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5114,7 +5779,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5231,6 +5896,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5243,7 +5915,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -5424,7 +6096,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -5433,7 +6105,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -5738,7 +6410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -5842,7 +6514,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -5906,7 +6578,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -5927,7 +6599,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -5948,7 +6620,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -6001,7 +6673,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -6012,22 +6684,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6035,7 +6707,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -6061,7 +6733,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -6139,7 +6811,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -6273,7 +6945,2794 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="C5:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="28"/>
+      <c r="D6" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="33"/>
+      <c r="K7" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="39" t="s">
+        <v>509</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33"/>
+      <c r="K9" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33"/>
+      <c r="K10" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="O10" s="47"/>
+      <c r="P10" s="45"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D11" s="39" t="s">
+        <v>512</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="33"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D12" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D13" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="40"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D15" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D16" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="K17" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D18" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D19" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D20" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K10:M14"/>
+    <mergeCell ref="N10:P14"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="73.375" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
+    <sortCondition ref="A3:A21"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+    <sortCondition ref="A34"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="54.75" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="43" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C37">
+    <sortCondition ref="A3:A37"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="23" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D39" s="30"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+    <sortCondition ref="A3:A15"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="72.625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="35" style="21" customWidth="1"/>
+    <col min="5" max="5" width="64.625" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="C4" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="C14" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="60.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="75.75" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="2:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6292,50 +9751,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>399</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -6347,36 +9806,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>412</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -6388,36 +9847,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>417</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>422</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -6429,53 +9888,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>427</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>431</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>440</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -6487,19 +9946,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>436</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -6513,2398 +9972,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:P22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="28"/>
-      <c r="D6" s="39" t="s">
-        <v>511</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="K6" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D7" s="39" t="s">
-        <v>512</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="39" t="s">
-        <v>528</v>
-      </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="33"/>
-      <c r="K7" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="39" t="s">
-        <v>513</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D9" s="39" t="s">
-        <v>514</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33"/>
-      <c r="K9" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D10" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33"/>
-      <c r="K10" s="42" t="s">
-        <v>546</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D11" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="39" t="s">
-        <v>532</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="33"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D12" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="39" t="s">
-        <v>533</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="40"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="39" t="s">
-        <v>535</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="39" t="s">
-        <v>520</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="39" t="s">
-        <v>536</v>
-      </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="39" t="s">
-        <v>521</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="39" t="s">
-        <v>537</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="33"/>
-      <c r="K17" s="28" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="39" t="s">
-        <v>538</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="39" t="s">
-        <v>539</v>
-      </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="39" t="s">
-        <v>540</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="39" t="s">
-        <v>541</v>
-      </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="39" t="s">
-        <v>526</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="39" t="s">
-        <v>542</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K10:M14"/>
-    <mergeCell ref="N10:P14"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="73.375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-  </sheetData>
-  <sortState ref="A3:D21">
-    <sortCondition ref="A3:A21"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="16" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D34">
-    <sortCondition ref="A34"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="44.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="54.75" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D40" s="9"/>
-    </row>
-  </sheetData>
-  <sortState ref="A3:C37">
-    <sortCondition ref="A3:A37"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.625" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A3:C14">
-    <sortCondition ref="A3:A14"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="50.375" customWidth="1"/>
-    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="23" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" s="30"/>
-    </row>
-  </sheetData>
-  <sortState ref="A3:C12">
-    <sortCondition ref="A3:A12"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="72.625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="35" style="21" customWidth="1"/>
-    <col min="5" max="5" width="64.625" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="C3" s="22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="C4" s="22" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="C14" s="22" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="60.375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="75.75" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-    </row>
-    <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE7F23-BD40-483A-BE1E-7DC8C5765EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21375" yWindow="1200" windowWidth="21435" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21375" yWindow="1200" windowWidth="21435" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -5462,7 +5461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5915,7 +5914,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -6096,7 +6095,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -6105,7 +6104,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -6410,7 +6409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -6945,7 +6944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7272,11 +7271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7625,7 +7624,7 @@
       <c r="F21" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
+  <sortState ref="A3:D21">
     <sortCondition ref="A3:A21"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7635,7 +7634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8114,7 +8113,7 @@
       <c r="E35" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+  <sortState ref="A2:D34">
     <sortCondition ref="A34"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8123,10 +8122,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -8891,7 +8890,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C37">
+  <sortState ref="A3:C37">
     <sortCondition ref="A3:A37"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8901,7 +8900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8989,7 +8988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9403,7 +9402,7 @@
       <c r="D39" s="30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+  <sortState ref="A3:C15">
     <sortCondition ref="A3:A15"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9412,7 +9411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9580,7 +9579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -9732,7 +9731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE67D5B-C9AE-4DD0-9D4D-3B1D65B853F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21375" yWindow="1200" windowWidth="21435" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="-24915" yWindow="645" windowWidth="17010" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="683">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -1015,8 +1016,14 @@
     <t>격</t>
   </si>
   <si>
-    <r>
-      <t>Nom</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>수 (단수/복수)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sing</t>
     </r>
     <r>
       <rPr>
@@ -1036,18 +1043,24 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>Acc</t>
-    </r>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>수 (단수/복수)</t>
-  </si>
-  <si>
-    <r>
-      <t>Sing</t>
+      <t>Plur</t>
+    </r>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>성</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>인칭</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1067,18 +1080,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>Plur</t>
-    </r>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>성</t>
-  </si>
-  <si>
-    <r>
-      <t>Masc</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1098,57 +1100,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>Fem</t>
-    </r>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>인칭</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>3</t>
     </r>
   </si>
@@ -1159,100 +1110,7 @@
     <t>대명사 종류</t>
   </si>
   <si>
-    <r>
-      <t>Prs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Int</t>
-    </r>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
     <t>비교급, 최상급</t>
-  </si>
-  <si>
-    <r>
-      <t>Pos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Cmp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Sup</t>
-    </r>
   </si>
   <si>
     <t>PunctType</t>
@@ -2067,10 +1925,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>관계대명사 또는 한정사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Wh-DeTerminer</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5457,11 +5311,170 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>infinitive marker 또는 
+Preposition or subordinating conjunction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wh-adverb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wh로 시작하는 부사
+의문/관계부사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한정사
+의문/관계형용사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nominative(주격)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Accusative(목적격), Dative(여격),
+Genitive(소유격), Ablative(탈격), Locative(위치격),
+Vocative(호격)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Masculine(남성)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Feminine(여성), Neuter(중성), Common(공통),
+Animate(생물), Inanimate(무생물)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Prs(Personal, 인칭대명사)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, Rel(Relative, 관계대명사),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Int(Interrogative, 의문대명사), Rcp(Reciprocal, 상호대명사),
+Reflex(Reflexive, 재귀대명사), Dem(Demonstrative,지시대명사),
+Ind(Indefinite ,부정대명사), Emp(Emphatic, 강조대명사),
+Tot(Total, 총칭대명사), Neg(Negative, 부정대명사)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Positive(원급)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Cmp(Comparative, 비교급)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Superlative(최상급)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5914,7 +5927,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -6094,8 +6107,8 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -6104,7 +6117,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -6409,7 +6422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -6683,22 +6696,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6706,7 +6719,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -6944,7 +6957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C5:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6955,71 +6968,71 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
       <c r="D6" s="39" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="K6" s="36" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="36" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" s="39" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="39" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="33"/>
       <c r="K7" s="32" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="32" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" s="39" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="39" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="33"/>
@@ -7032,56 +7045,56 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" s="39" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="39" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="33"/>
       <c r="K9" s="37" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="37" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" s="39" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="39" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="33"/>
       <c r="K10" s="45" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="47" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="O10" s="47"/>
       <c r="P10" s="45"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" s="39" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="33"/>
@@ -7094,12 +7107,12 @@
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" s="39" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="39" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="33"/>
@@ -7112,12 +7125,12 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" s="39" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="39" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33"/>
@@ -7144,117 +7157,117 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" s="39" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="39" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" s="39" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="33"/>
       <c r="G16" s="39" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="39" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="33"/>
       <c r="G17" s="39" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="39" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="33"/>
       <c r="G18" s="39" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="28" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="39" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
       <c r="G19" s="39" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="39" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="33"/>
       <c r="G20" s="39" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="33"/>
       <c r="J20" s="28" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="39" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="39" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" s="39" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="33"/>
       <c r="G22" s="39" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
@@ -7271,11 +7284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7291,7 +7304,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B1" s="31"/>
     </row>
@@ -7332,10 +7345,10 @@
         <v>208</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>68</v>
@@ -7344,7 +7357,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7477,13 +7490,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>68</v>
@@ -7492,7 +7505,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7624,7 +7637,7 @@
       <c r="F21" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:D21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
     <sortCondition ref="A3:A21"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7634,18 +7647,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="32.75" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
@@ -7653,7 +7666,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7773,14 +7786,16 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="16" t="s">
+        <v>673</v>
+      </c>
       <c r="D11" s="9" t="s">
         <v>109</v>
       </c>
@@ -7989,7 +8004,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>151</v>
@@ -8004,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>160</v>
@@ -8019,7 +8034,7 @@
         <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>157</v>
@@ -8034,7 +8049,7 @@
         <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>154</v>
@@ -8049,7 +8064,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>151</v>
@@ -8064,7 +8079,7 @@
         <v>149</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>148</v>
@@ -8073,17 +8088,17 @@
     </row>
     <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>677</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -8112,8 +8127,23 @@
       </c>
       <c r="E35" s="9"/>
     </row>
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:D34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
     <sortCondition ref="A34"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8122,11 +8152,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8140,7 +8170,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8157,25 +8187,25 @@
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -8184,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -8196,22 +8226,22 @@
         <v>238</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -8220,10 +8250,10 @@
         <v>237</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -8232,22 +8262,22 @@
         <v>223</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -8265,10 +8295,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -8290,13 +8320,13 @@
         <v>232</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8307,19 +8337,19 @@
         <v>284</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -8373,13 +8403,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -8388,7 +8418,7 @@
         <v>236</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>235</v>
@@ -8397,13 +8427,13 @@
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -8415,7 +8445,7 @@
         <v>245</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -8424,13 +8454,13 @@
         <v>230</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -8447,13 +8477,13 @@
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -8465,7 +8495,7 @@
         <v>259</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -8507,60 +8537,60 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="C32" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -8585,10 +8615,10 @@
         <v>221</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -8606,24 +8636,24 @@
         <v>241</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D40" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>51</v>
@@ -8634,16 +8664,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8651,13 +8681,13 @@
         <v>240</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8665,13 +8695,13 @@
         <v>241</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -8679,27 +8709,27 @@
         <v>239</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -8707,27 +8737,27 @@
         <v>222</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -8735,13 +8765,13 @@
         <v>234</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -8749,13 +8779,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -8763,13 +8793,13 @@
         <v>220</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -8777,26 +8807,26 @@
         <v>217</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>51</v>
@@ -8810,27 +8840,27 @@
         <v>260</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -8838,59 +8868,59 @@
         <v>255</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>251</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C37">
     <sortCondition ref="A3:A37"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8900,7 +8930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8988,11 +9018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9005,21 +9035,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>292</v>
       </c>
@@ -9027,98 +9057,98 @@
         <v>293</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>307</v>
+        <v>681</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>309</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>299</v>
-      </c>
       <c r="C6" s="17" t="s">
-        <v>300</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>305</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>306</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9137,21 +9167,21 @@
         <v>288</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -9167,147 +9197,147 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="23" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D29" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>178</v>
@@ -9322,22 +9352,22 @@
         <v>220</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D34" s="30"/>
     </row>
@@ -9346,63 +9376,63 @@
         <v>217</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D39" s="30"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A3:A15"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9411,7 +9441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9432,71 +9462,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9506,18 +9536,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>350</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9525,51 +9555,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -9579,7 +9609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -9596,44 +9626,44 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -9642,16 +9672,16 @@
     </row>
     <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -9660,7 +9690,7 @@
     </row>
     <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C19" s="22"/>
     </row>
@@ -9670,10 +9700,10 @@
     </row>
     <row r="21" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -9706,22 +9736,22 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -9731,7 +9761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9750,50 +9780,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>406</v>
-      </c>
       <c r="D4" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>402</v>
-      </c>
       <c r="F4" s="24" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -9805,36 +9835,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -9846,36 +9876,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>421</v>
-      </c>
       <c r="F10" s="25" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -9887,53 +9917,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D13" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>425</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -9945,19 +9975,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE67D5B-C9AE-4DD0-9D4D-3B1D65B853F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC493EF-B8DB-445F-B62A-01D741FDD1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24915" yWindow="645" windowWidth="17010" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22260" yWindow="1230" windowWidth="16410" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="684">
   <si>
     <t>✅ 첫 글자가 대문자인지</t>
   </si>
@@ -5468,6 +5468,10 @@
       </rPr>
       <t>Superlative(최상급)</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>. , ! ? : ; - – — ' " “ ” ( ) [ ] { } / ...</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7287,8 +7291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7554,7 +7558,9 @@
       <c r="E16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -7650,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC493EF-B8DB-445F-B62A-01D741FDD1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC30729-98BE-453D-8746-311FF0BE383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22260" yWindow="1230" windowWidth="16410" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7292,7 +7292,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC30729-98BE-453D-8746-311FF0BE383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA834F6-05B0-459B-9376-8C6C4CA1B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22260" yWindow="1230" windowWidth="16410" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7292,7 +7292,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA834F6-05B0-459B-9376-8C6C4CA1B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304C324D-25FE-4CBA-B74C-6386151023E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22260" yWindow="1230" windowWidth="16410" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24195" yWindow="1230" windowWidth="20220" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -940,11 +940,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>clausal complement with subject
-종속절의 중심동사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Tense</t>
   </si>
   <si>
@@ -1615,57 +1610,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> leader. / 좀 이상항</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She said that he </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-She made him </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>leader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. / 이상함</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2371,35 +2315,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">the book that ou gave me
-The teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>named</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> John class president.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>SVC adjectival complement 형용사 보어 - be동사 등의 보어</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4932,36 +4847,7 @@
     </r>
   </si>
   <si>
-    <t>Open clausal complement</t>
-  </si>
-  <si>
     <t>주절의 동사와 같은 주어를 공유하는 절. 주어 없이 붙는 절의 메인 동사</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She wants [to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>win</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>].</t>
-    </r>
   </si>
   <si>
     <t>Adverbial Clause Modifier</t>
@@ -5472,6 +5358,190 @@
   </si>
   <si>
     <t>. , ! ? : ; - – — ' " “ ” ( ) [ ] { } / ...</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A clausal complement with its own subject, 
+or a predicative element complement to an object.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An open clausal complement, without its own subject.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She wants [to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She said that he </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+She made him </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+They found the room </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The dog </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loudly kept me awake.
+The teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>named</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> John class president.
+The book </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you gave me is amazing. (that은 dative로)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6700,22 +6770,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6723,7 +6793,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -6972,71 +7042,71 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>497</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
       <c r="D6" s="39" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="K6" s="36" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="36" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" s="39" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="39" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="33"/>
       <c r="K7" s="32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="32" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="39" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="33"/>
@@ -7049,56 +7119,56 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="39" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="33"/>
       <c r="K9" s="37" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="37" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" s="39" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="39" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="33"/>
       <c r="K10" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="47" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O10" s="47"/>
       <c r="P10" s="45"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="39" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="33"/>
@@ -7111,12 +7181,12 @@
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" s="39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="39" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="33"/>
@@ -7129,12 +7199,12 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" s="39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="39" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33"/>
@@ -7161,117 +7231,117 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" s="39" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="39" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" s="39" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="33"/>
       <c r="G16" s="39" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="39" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="33"/>
       <c r="G17" s="39" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="39" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="33"/>
       <c r="G18" s="39" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="28" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="39" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
       <c r="G19" s="39" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="33"/>
       <c r="J19" s="28" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="39" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="33"/>
       <c r="G20" s="39" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="33"/>
       <c r="J20" s="28" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="39" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" s="39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="33"/>
       <c r="G22" s="39" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
@@ -7291,7 +7361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -7308,7 +7378,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B1" s="31"/>
     </row>
@@ -7349,10 +7419,10 @@
         <v>208</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>68</v>
@@ -7361,7 +7431,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7494,13 +7564,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>68</v>
@@ -7509,7 +7579,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7559,7 +7629,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7656,8 +7726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7672,7 +7742,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7800,7 +7870,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>109</v>
@@ -8010,7 +8080,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>151</v>
@@ -8025,7 +8095,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>160</v>
@@ -8040,7 +8110,7 @@
         <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>157</v>
@@ -8055,7 +8125,7 @@
         <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>154</v>
@@ -8070,7 +8140,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>151</v>
@@ -8085,7 +8155,7 @@
         <v>149</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>148</v>
@@ -8094,17 +8164,17 @@
     </row>
     <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -8135,13 +8205,13 @@
     </row>
     <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>133</v>
@@ -8161,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8176,7 +8246,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8191,27 +8261,27 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>487</v>
+        <v>683</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -8220,10 +8290,10 @@
         <v>239</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -8232,22 +8302,22 @@
         <v>238</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -8256,10 +8326,10 @@
         <v>237</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -8268,22 +8338,22 @@
         <v>223</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -8301,10 +8371,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -8326,36 +8396,36 @@
         <v>232</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>240</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>284</v>
+        <v>679</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>336</v>
+        <v>682</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -8409,13 +8479,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -8424,7 +8494,7 @@
         <v>236</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>235</v>
@@ -8433,13 +8503,13 @@
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -8451,7 +8521,7 @@
         <v>245</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -8460,13 +8530,13 @@
         <v>230</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>572</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -8483,13 +8553,13 @@
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>327</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>328</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -8501,7 +8571,7 @@
         <v>259</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -8543,60 +8613,60 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C33" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="D33" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>560</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -8621,10 +8691,10 @@
         <v>221</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -8642,24 +8712,24 @@
         <v>241</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>51</v>
@@ -8670,16 +8740,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>630</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8687,13 +8757,13 @@
         <v>240</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8701,13 +8771,13 @@
         <v>241</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>637</v>
+        <v>680</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -8715,27 +8785,27 @@
         <v>239</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -8743,27 +8813,27 @@
         <v>222</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -8771,13 +8841,13 @@
         <v>234</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -8785,13 +8855,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -8799,13 +8869,13 @@
         <v>220</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -8813,26 +8883,26 @@
         <v>217</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>51</v>
@@ -8846,27 +8916,27 @@
         <v>260</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>611</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>613</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -8874,55 +8944,55 @@
         <v>255</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>251</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>621</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>628</v>
-      </c>
       <c r="C64" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>626</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -9027,8 +9097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9041,309 +9111,309 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>445</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>293</v>
-      </c>
       <c r="C3" s="17" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>448</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>298</v>
-      </c>
       <c r="C6" s="17" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>295</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>303</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>306</v>
-      </c>
       <c r="C11" s="17" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>581</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>464</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>479</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>481</v>
       </c>
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>482</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>484</v>
       </c>
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>467</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>469</v>
       </c>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>458</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>460</v>
       </c>
       <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>476</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>455</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>457</v>
       </c>
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>472</v>
       </c>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>461</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>473</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>475</v>
       </c>
       <c r="D29" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>178</v>
@@ -9358,22 +9428,22 @@
         <v>220</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D34" s="30"/>
     </row>
@@ -9382,58 +9452,58 @@
         <v>217</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D39" s="30"/>
     </row>
@@ -9468,71 +9538,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>344</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9542,18 +9612,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9561,51 +9631,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>364</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>365</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>354</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -9632,44 +9702,44 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -9678,16 +9748,16 @@
     </row>
     <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -9696,7 +9766,7 @@
     </row>
     <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C19" s="22"/>
     </row>
@@ -9706,10 +9776,10 @@
     </row>
     <row r="21" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -9742,22 +9812,22 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -9786,50 +9856,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>391</v>
-      </c>
       <c r="F2" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>392</v>
-      </c>
       <c r="F3" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>396</v>
-      </c>
       <c r="F4" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -9841,36 +9911,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>404</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -9882,36 +9952,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="E9" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>409</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>415</v>
-      </c>
       <c r="F10" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -9923,53 +9993,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E12" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>419</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>423</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>432</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -9981,19 +10051,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304C324D-25FE-4CBA-B74C-6386151023E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30041927-9B32-4568-B231-3D5C92099491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24195" yWindow="1230" windowWidth="20220" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7727,7 +7727,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30041927-9B32-4568-B231-3D5C92099491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F30929-B31B-47DB-9433-74BECE7E95AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24195" yWindow="1230" windowWidth="20220" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26970" yWindow="1815" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -7361,8 +7361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7726,8 +7726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8231,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F30929-B31B-47DB-9433-74BECE7E95AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959AE5A-3B41-4D76-934C-1AB2FDFE312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="1815" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27885" yWindow="1710" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -7362,7 +7362,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7726,8 +7726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8231,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959AE5A-3B41-4D76-934C-1AB2FDFE312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B9ACC-E1B2-4657-88C7-52ADE19A8063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27885" yWindow="1710" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26535" yWindow="2775" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -7726,7 +7726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -8231,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GPTs_vs_spaCy_Parsing_Fields.xlsx
+++ b/GPTs_vs_spaCy_Parsing_Fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drawenglish-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B9ACC-E1B2-4657-88C7-52ADE19A8063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A084E-9CEA-4141-B8F8-7FFF59BA7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26535" yWindow="2775" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27720" yWindow="1965" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -855,9 +855,6 @@
     <t>nsubjpass</t>
   </si>
   <si>
-    <t>nominal subject (명사 주어)</t>
-  </si>
-  <si>
     <t>nsubj</t>
   </si>
   <si>
@@ -1488,34 +1485,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>chair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The man who </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>came</t>
     </r>
     <r>
       <rPr>
@@ -5544,12 +5513,67 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The man who </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>came</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+I have a book to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nominal subject (명사 주어)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5762,6 +5786,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFEE0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -6664,7 +6697,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -6685,7 +6718,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -6706,7 +6739,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -6759,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>79</v>
@@ -6770,22 +6803,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6793,7 +6826,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -6819,7 +6852,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>67</v>
@@ -6897,7 +6930,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
@@ -7042,71 +7075,71 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="F5" s="28" t="s">
         <v>495</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="28"/>
       <c r="D6" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="K6" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="36" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" s="39" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="33"/>
       <c r="K7" s="32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" s="39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="33"/>
@@ -7119,56 +7152,56 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" s="39" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="33"/>
       <c r="K9" s="37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="37" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" s="39" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="33"/>
       <c r="K10" s="45" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="47" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O10" s="47"/>
       <c r="P10" s="45"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" s="39" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="33"/>
@@ -7181,12 +7214,12 @@
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" s="39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="33"/>
@@ -7199,12 +7232,12 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" s="39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33"/>
@@ -7231,117 +7264,117 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" s="39" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="39" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" s="39" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="33"/>
       <c r="G16" s="39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="39" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="33"/>
       <c r="G17" s="39" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="33"/>
       <c r="K17" s="28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="39" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="33"/>
       <c r="G18" s="39" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="33"/>
       <c r="J18" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>538</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="39" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="33"/>
       <c r="G19" s="39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="33"/>
       <c r="J19" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>539</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="33"/>
       <c r="G20" s="39" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="33"/>
       <c r="J20" s="28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="39" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" s="39" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="33"/>
       <c r="G22" s="39" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="33"/>
@@ -7378,7 +7411,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B1" s="31"/>
     </row>
@@ -7419,10 +7452,10 @@
         <v>208</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>68</v>
@@ -7431,7 +7464,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7564,13 +7597,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>68</v>
@@ -7579,7 +7612,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7629,7 +7662,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7726,8 +7759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7742,7 +7775,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -7870,7 +7903,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>109</v>
@@ -8080,7 +8113,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>151</v>
@@ -8095,7 +8128,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>160</v>
@@ -8110,7 +8143,7 @@
         <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>157</v>
@@ -8125,7 +8158,7 @@
         <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>154</v>
@@ -8140,7 +8173,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>151</v>
@@ -8155,7 +8188,7 @@
         <v>149</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>148</v>
@@ -8164,17 +8197,17 @@
     </row>
     <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -8205,13 +8238,13 @@
     </row>
     <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>671</v>
-      </c>
       <c r="C36" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>133</v>
@@ -8231,8 +8264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8246,7 +8279,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8263,25 +8296,25 @@
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -8290,10 +8323,10 @@
         <v>239</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -8302,22 +8335,22 @@
         <v>238</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>546</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -8326,10 +8359,10 @@
         <v>237</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -8338,22 +8371,22 @@
         <v>223</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -8371,10 +8404,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -8396,13 +8429,13 @@
         <v>232</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>573</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8410,22 +8443,22 @@
         <v>240</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -8479,13 +8512,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -8494,7 +8527,7 @@
         <v>236</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>235</v>
@@ -8503,13 +8536,13 @@
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -8521,7 +8554,7 @@
         <v>245</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -8530,13 +8563,13 @@
         <v>230</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>570</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -8553,25 +8586,25 @@
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>259</v>
+        <v>683</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -8613,60 +8646,60 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C33" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="C33" s="41" t="s">
-        <v>557</v>
-      </c>
       <c r="D33" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>553</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -8683,26 +8716,26 @@
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>222</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>331</v>
+      <c r="C38" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -8712,24 +8745,24 @@
         <v>241</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>51</v>
@@ -8740,16 +8773,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>628</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8757,13 +8790,13 @@
         <v>240</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>631</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8771,13 +8804,13 @@
         <v>241</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -8785,27 +8818,27 @@
         <v>239</v>
       </c>
       <c r="B47" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>635</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>639</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -8813,27 +8846,27 @@
         <v>222</v>
       </c>
       <c r="B49" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>642</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>646</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -8841,13 +8874,13 @@
         <v>234</v>
       </c>
       <c r="B51" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>649</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>650</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -8855,13 +8888,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>652</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -8869,13 +8902,13 @@
         <v>220</v>
       </c>
       <c r="B53" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>655</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -8883,26 +8916,26 @@
         <v>217</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>658</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>51</v>
@@ -8913,30 +8946,30 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B59" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>605</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>609</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -8944,55 +8977,55 @@
         <v>255</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>251</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="D63" s="18" t="s">
         <v>619</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -9023,7 +9056,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>51</v>
@@ -9037,54 +9070,54 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -9111,309 +9144,309 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>443</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>292</v>
-      </c>
       <c r="C3" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>446</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>297</v>
-      </c>
       <c r="C6" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76.5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>302</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>305</v>
-      </c>
       <c r="C11" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>579</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>464</v>
       </c>
       <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>479</v>
       </c>
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>482</v>
       </c>
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>456</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>458</v>
       </c>
       <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>474</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>476</v>
       </c>
       <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>453</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>455</v>
       </c>
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>468</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>470</v>
       </c>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>471</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>473</v>
       </c>
       <c r="D29" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>178</v>
@@ -9428,22 +9461,22 @@
         <v>220</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>585</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>587</v>
       </c>
       <c r="D34" s="30"/>
     </row>
@@ -9452,58 +9485,58 @@
         <v>217</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>590</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>592</v>
       </c>
       <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>593</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>595</v>
       </c>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>596</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>598</v>
       </c>
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>599</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>601</v>
       </c>
       <c r="D39" s="30"/>
     </row>
@@ -9538,71 +9571,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
       <c r="C3" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>342</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9612,18 +9645,18 @@
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="C14" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9631,51 +9664,51 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>363</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>352</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -9702,44 +9735,44 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -9748,16 +9781,16 @@
     </row>
     <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -9766,7 +9799,7 @@
     </row>
     <row r="19" spans="2:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C19" s="22"/>
     </row>
@@ -9776,10 +9809,10 @@
     </row>
     <row r="21" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -9812,22 +9845,22 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -9856,50 +9889,50 @@
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>389</v>
-      </c>
       <c r="F2" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>390</v>
-      </c>
       <c r="F3" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>394</v>
-      </c>
       <c r="F4" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -9911,36 +9944,36 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>402</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -9952,36 +9985,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="E9" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>413</v>
-      </c>
       <c r="F10" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -9993,53 +10026,53 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E12" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>417</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>421</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>430</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -10051,19 +10084,19 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
